--- a/backend/resource/neo4j.xlsx
+++ b/backend/resource/neo4j.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">resource!$A$1:$F$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">room!$A$1:$M$78</definedName>
+    <definedName name="OLE_LINK3" localSheetId="7">service!$G$12</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="849">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,18 +916,12 @@
     <t>古籍馆一层</t>
   </si>
   <si>
-    <t>临琼楼，古籍楼，古籍馆，古籍馆临琼楼，古籍楼一层，古籍馆一层，古籍楼一楼，古籍馆一楼</t>
-  </si>
-  <si>
     <t>古籍馆二层，文津楼一层</t>
   </si>
   <si>
     <t>古籍馆二层</t>
   </si>
   <si>
-    <t>文津楼一层，古籍楼二层，文津楼一楼，古籍楼二楼，古籍馆二楼，古籍馆文津楼一楼，古籍馆文津楼一楼，文津楼</t>
-  </si>
-  <si>
     <t>古籍馆三层，文津楼二层</t>
   </si>
   <si>
@@ -1846,10 +1841,6 @@
   </si>
   <si>
     <t>临琼楼一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古籍楼一层，古籍馆一层，古籍楼一楼，古籍馆一楼，临琼楼一层，临琼楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2726,10 +2717,6 @@
   </si>
   <si>
     <t>总馆南区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文津楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3758,10 +3745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文献提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文献提供，提供文献</t>
     <rPh sb="7" eb="8">
       <t>wen xian</t>
@@ -3772,10 +3755,6 @@
     <t>本馆在阅览室和公共服务区设立多处人工复制处和自助复制处，利用现代化、专业化的文献复制设备，为到馆读者提供馆藏文献复制、扫描、打印、缩微胶片还原、拍照、装订、光盘刻录等多项业务</t>
   </si>
   <si>
-    <t>复制服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复制服务，复制</t>
     <rPh sb="5" eb="6">
       <t>fu zhi</t>
@@ -4076,10 +4055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青年读者卡，读者卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法语书，法国书，外文_法文图书，外文法文图书，法文图书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4137,6 +4112,79 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>shu zi qi k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文献提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文津楼一层，古籍楼二层，文津楼一楼，古籍楼二楼，古籍馆二楼，古籍馆文津楼一楼，古籍馆文津楼一楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古籍楼一层，古籍馆一层，古籍楼一楼，古籍馆一楼，临琼楼一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古籍楼一层，古籍馆一层，古籍楼一楼，古籍馆一楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技查新</t>
+  </si>
+  <si>
+    <t>凡在科研立项、科研课题申报、科技成果鉴定、科技项目评估及验收、科研奖励、申报中小企业创新基金、申报国家新产品计划、博硕士论文立题等方面需要出具查新报告的，读者可以选择到馆、电话、传真、发送电子邮件等方式与国家图书馆科技查新中心联系。</t>
+  </si>
+  <si>
+    <t>总馆北区办证处，总馆南区办证处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办读者卡</t>
+    <rPh sb="0" eb="1">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>du zh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办卡，办国家图书馆读者卡，办国图读者卡</t>
+    <rPh sb="0" eb="1">
+      <t>ban ja</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo jia tu shu guan du zhe ka</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guo tu du zhe ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青年读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆读者卡，读者卡</t>
+    <rPh sb="9" eb="10">
+      <t>du zhe ka</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4145,7 +4193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4320,6 +4368,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF14719D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4391,7 +4445,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4470,6 +4524,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -4788,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A17" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4810,72 +4865,72 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" t="s">
         <v>479</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>480</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>481</v>
       </c>
-      <c r="E1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>483</v>
       </c>
-      <c r="G1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H1" t="s">
-        <v>486</v>
-      </c>
       <c r="I1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J1" t="s">
+        <v>492</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O1" t="s">
+        <v>516</v>
+      </c>
+      <c r="P1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q1" t="s">
         <v>518</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>519</v>
       </c>
-      <c r="P1" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>521</v>
-      </c>
-      <c r="R1" t="s">
-        <v>522</v>
-      </c>
       <c r="S1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="T1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="U1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B2" t="s">
         <v>176</v>
@@ -4890,7 +4945,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
@@ -4908,25 +4963,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="M2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -4934,65 +4989,65 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q3" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R3" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P4" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q4" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R4" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -5001,27 +5056,27 @@
         <v>131</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -5048,28 +5103,28 @@
         <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P6" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q6" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R6" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -5080,51 +5135,51 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G8" t="s">
         <v>89</v>
@@ -5136,33 +5191,33 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P8" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q8" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R8" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -5181,33 +5236,33 @@
         <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L9" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P9" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q9" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R9" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -5219,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
@@ -5228,25 +5283,25 @@
         <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P10" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q10" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R10" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -5254,28 +5309,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P11" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q11" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R11" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -5283,28 +5338,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K12" t="s">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P12" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q12" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R12" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -5312,36 +5367,36 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P13" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q13" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -5362,33 +5417,33 @@
         <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L14" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P14" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q14" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R14" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -5409,33 +5464,33 @@
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L15" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P15" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q15" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R15" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -5444,7 +5499,7 @@
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -5453,25 +5508,25 @@
         <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P16" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q16" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R16" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S16" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -5497,30 +5552,30 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P17" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q17" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R17" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
@@ -5538,25 +5593,25 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L18" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P18" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q18" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R18" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -5582,22 +5637,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P19" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q19" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R19" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -5605,28 +5660,28 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K20" t="s">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P20" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q20" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R20" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -5634,57 +5689,57 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K21" t="s">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P21" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q21" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R21" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K22" t="s">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P22" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q22" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R22" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -5692,36 +5747,36 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K23" t="s">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P23" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q23" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R23" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S23" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C24" t="s">
         <v>123</v>
@@ -5751,25 +5806,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P24" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q24" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R24" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -5777,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -5801,39 +5856,39 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
         <v>159</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P25" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q25" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R25" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B26" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -5857,39 +5912,39 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P26" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q26" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R26" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S26" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B27" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -5913,33 +5968,33 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P27" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q27" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R27" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
@@ -5969,25 +6024,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P28" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q28" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R28" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S28" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -5995,7 +6050,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -6025,33 +6080,33 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P29" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q29" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R29" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -6072,25 +6127,25 @@
         <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P30" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q30" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R30" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -6098,36 +6153,36 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K31" t="s">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P31" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q31" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R31" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B32" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -6157,22 +6212,22 @@
         <v>131</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P32" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q32" s="38" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R32" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -6180,33 +6235,33 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P33" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q33" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R33" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S33" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -6233,33 +6288,33 @@
         <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P34" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q34" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R34" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S34" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -6283,25 +6338,25 @@
         <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P35" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q35" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R35" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6309,7 +6364,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -6333,33 +6388,33 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M36" t="s">
         <v>119</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P36" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q36" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R36" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S36" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -6389,25 +6444,25 @@
         <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P37" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q37" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R37" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S37" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -6415,7 +6470,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -6439,33 +6494,33 @@
         <v>15</v>
       </c>
       <c r="L38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s">
         <v>119</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P38" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q38" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R38" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S38" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
         <v>167</v>
@@ -6489,22 +6544,22 @@
         <v>15</v>
       </c>
       <c r="L39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P39" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q39" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R39" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6512,13 +6567,13 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>196</v>
@@ -6536,22 +6591,22 @@
         <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P40" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q40" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R40" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S40" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6559,7 +6614,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -6583,22 +6638,22 @@
         <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P41" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q41" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R41" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S41" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6606,7 +6661,7 @@
         <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
@@ -6630,30 +6685,30 @@
         <v>15</v>
       </c>
       <c r="L42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P42" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q42" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R42" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S42" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
@@ -6677,22 +6732,22 @@
         <v>15</v>
       </c>
       <c r="L43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q43" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R43" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S43" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6700,7 +6755,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -6724,33 +6779,33 @@
         <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M44" t="s">
         <v>119</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P44" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q44" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R44" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S44" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -6780,25 +6835,25 @@
         <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P45" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q45" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R45" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S45" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6830,33 +6885,33 @@
         <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P46" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q46" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R46" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S46" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -6880,33 +6935,33 @@
         <v>15</v>
       </c>
       <c r="L47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P47" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q47" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R47" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S47" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
@@ -6930,25 +6985,25 @@
         <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M48" t="s">
         <v>159</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P48" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q48" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R48" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S48" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -6956,7 +7011,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -6980,33 +7035,33 @@
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M49" t="s">
         <v>163</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P49" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q49" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R49" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S49" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
@@ -7030,25 +7085,25 @@
         <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s">
         <v>165</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P50" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q50" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R50" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S50" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -7056,7 +7111,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -7080,33 +7135,33 @@
         <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P51" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q51" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R51" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S51" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B52" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>196</v>
@@ -7121,22 +7176,22 @@
         <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P52" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q52" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R52" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S52" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -7144,7 +7199,7 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
         <v>76</v>
@@ -7168,36 +7223,36 @@
         <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P53" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q53" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R53" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S53" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="90" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -7221,39 +7276,39 @@
         <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M54" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P54" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q54" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R54" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
@@ -7277,25 +7332,25 @@
         <v>15</v>
       </c>
       <c r="L55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M55" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P55" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q55" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R55" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S55" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -7303,7 +7358,7 @@
         <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s">
         <v>48</v>
@@ -7333,25 +7388,25 @@
         <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P56" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q56" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R56" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S56" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -7359,7 +7414,7 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -7383,25 +7438,25 @@
         <v>15</v>
       </c>
       <c r="L57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M57" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P57" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q57" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R57" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S57" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -7433,33 +7488,33 @@
         <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M58" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P58" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q58" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R58" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S58" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B59" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>204</v>
@@ -7477,30 +7532,30 @@
         <v>15</v>
       </c>
       <c r="L59" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P59" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q59" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R59" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S59" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B60" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -7515,22 +7570,22 @@
         <v>15</v>
       </c>
       <c r="L60" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P60" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q60" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R60" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S60" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
@@ -7538,28 +7593,28 @@
         <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K61" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P61" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q61" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R61" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S61" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -7567,28 +7622,28 @@
         <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K62" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P62" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q62" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R62" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S62" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
@@ -7596,28 +7651,28 @@
         <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K63" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P63" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q63" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R63" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S63" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -7625,28 +7680,28 @@
         <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K64" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P64" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q64" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R64" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S64" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -7654,28 +7709,28 @@
         <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K65" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P65" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q65" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R65" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S65" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -7683,28 +7738,28 @@
         <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K66" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P66" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q66" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R66" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -7712,28 +7767,28 @@
         <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K67" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P67" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q67" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R67" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S67" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -7741,28 +7796,28 @@
         <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K68" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P68" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q68" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R68" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S68" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -7770,28 +7825,28 @@
         <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K69" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P69" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q69" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R69" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S69" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -7799,13 +7854,13 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>205</v>
@@ -7820,28 +7875,28 @@
         <v>28</v>
       </c>
       <c r="K70" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M70" t="s">
         <v>165</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P70" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q70" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R70" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S70" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -7849,28 +7904,28 @@
         <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K71" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P71" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q71" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R71" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S71" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -7878,13 +7933,13 @@
         <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C72" t="s">
         <v>43</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>206</v>
@@ -7899,28 +7954,28 @@
         <v>28</v>
       </c>
       <c r="K72" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M72" t="s">
         <v>173</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P72" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q72" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R72" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S72" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -7928,13 +7983,13 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
         <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>207</v>
@@ -7949,28 +8004,28 @@
         <v>28</v>
       </c>
       <c r="K73" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M73" t="s">
         <v>174</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P73" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q73" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R73" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S73" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -7978,13 +8033,13 @@
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
         <v>43</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>205</v>
@@ -7999,28 +8054,28 @@
         <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M74" t="s">
         <v>175</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P74" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q74" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R74" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S74" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -8028,28 +8083,28 @@
         <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K75" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P75" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q75" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R75" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S75" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -8057,28 +8112,28 @@
         <v>184</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K76" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P76" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q76" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R76" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S76" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -8086,28 +8141,28 @@
         <v>191</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K77" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P77" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q77" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R77" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S77" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -8115,7 +8170,7 @@
         <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C78" t="s">
         <v>143</v>
@@ -8127,25 +8182,25 @@
         <v>142</v>
       </c>
       <c r="L78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M78" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P78" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q78" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R78" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S78" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="60" x14ac:dyDescent="0.2">
@@ -8153,13 +8208,13 @@
         <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C79" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
@@ -8186,22 +8241,22 @@
         <v>131</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P79" s="38" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q79" s="38" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R79" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S79" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="75" x14ac:dyDescent="0.2">
@@ -8209,13 +8264,13 @@
         <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C80" t="s">
         <v>135</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -8242,22 +8297,22 @@
         <v>134</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P80" s="38" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q80" s="38" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R80" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S80" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -8265,13 +8320,13 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C81" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
@@ -8298,22 +8353,22 @@
         <v>139</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R81" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S81" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -8321,13 +8376,13 @@
         <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C82" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -8354,36 +8409,36 @@
         <v>131</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P82" s="38" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q82" s="38" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R82" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S82" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C83" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
@@ -8407,22 +8462,22 @@
         <v>131</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P83" s="38" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q83" s="38" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R83" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S83" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -8436,42 +8491,42 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N84" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P84" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q84" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="R84" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S84" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B85" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G85" t="s">
         <v>88</v>
@@ -8486,28 +8541,28 @@
         <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L85" t="s">
         <v>131</v>
       </c>
       <c r="M85" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N85" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P85" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q85" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="R85" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S85" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -8515,13 +8570,13 @@
     </row>
     <row r="86" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B86" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
@@ -8551,22 +8606,22 @@
         <v>131</v>
       </c>
       <c r="M86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P86" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q86" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R86" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S86" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T86">
         <v>1</v>
@@ -8574,10 +8629,10 @@
     </row>
     <row r="87" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K87" t="s">
         <v>0</v>
@@ -8586,36 +8641,36 @@
         <v>131</v>
       </c>
       <c r="N87" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O87" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P87" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q87" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="R87" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="S87" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="T87" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="U87" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K88" t="s">
         <v>0</v>
@@ -8624,33 +8679,33 @@
         <v>131</v>
       </c>
       <c r="N88" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P88" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q88" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="R88" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="S88" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="T88" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="U88" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K89" t="s">
         <v>0</v>
@@ -8659,36 +8714,36 @@
         <v>131</v>
       </c>
       <c r="N89" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O89" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P89" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="Q89" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="R89" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="S89" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="T89" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="U89" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K90" t="s">
         <v>0</v>
@@ -8697,33 +8752,33 @@
         <v>131</v>
       </c>
       <c r="N90" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P90" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="Q90" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="R90" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="S90" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="T90" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="U90" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K91" t="s">
         <v>0</v>
@@ -8732,33 +8787,33 @@
         <v>131</v>
       </c>
       <c r="N91" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P91" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="Q91" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="R91" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="S91" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="T91" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="U91" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B92" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K92" t="s">
         <v>0</v>
@@ -8767,28 +8822,28 @@
         <v>131</v>
       </c>
       <c r="N92" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O92" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="Q92" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="R92" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="S92" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="T92" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="U92" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -8827,34 +8882,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -8868,23 +8923,23 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8892,52 +8947,52 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>848</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -8951,124 +9006,124 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" t="s">
         <v>597</v>
       </c>
-      <c r="E1" t="s">
-        <v>598</v>
-      </c>
-      <c r="F1" t="s">
-        <v>600</v>
-      </c>
       <c r="G1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D2" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>605</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -9082,7 +9137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="125" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -9098,341 +9153,341 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F1" t="s">
-        <v>505</v>
-      </c>
       <c r="G1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K1" t="s">
         <v>678</v>
       </c>
-      <c r="H1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I1" t="s">
-        <v>680</v>
-      </c>
-      <c r="J1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K1" t="s">
-        <v>682</v>
-      </c>
       <c r="L1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D3" s="8">
         <v>1722826</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
         <v>367806</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G4" s="29">
         <v>1984</v>
       </c>
       <c r="I4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
         <v>367806</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G5" s="29">
         <v>1984</v>
       </c>
       <c r="I5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
         <v>367806</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G6" s="29"/>
       <c r="I6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>367806</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7" s="29">
         <v>1984</v>
       </c>
       <c r="I7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
         <v>2337712</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I8" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I9" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I10" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>676822</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
         <v>1214830</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G13" s="29">
         <v>1984</v>
       </c>
       <c r="I13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G14" s="29">
         <v>1984</v>
       </c>
       <c r="I14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D15" s="8">
         <v>341573</v>
@@ -9441,27 +9496,27 @@
         <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G15">
         <v>1910</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="345" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D16" s="8">
         <v>341573</v>
@@ -9470,399 +9525,399 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G16">
         <v>1954</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D17" s="8">
         <v>341573</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17">
         <v>1910</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D18" s="8">
         <v>183083</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G18">
         <v>1929</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D19" s="8">
         <v>183083</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19">
         <v>1929</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="8">
         <v>172022</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D21">
         <v>32941</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G21" s="43">
         <v>1929</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J21" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D22" s="8">
         <v>110430</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G22">
         <v>1954</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D23" s="8">
         <v>232503</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I23" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J23" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D24" s="8">
         <v>28972</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D25" s="12">
         <v>137274</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G25" s="29">
         <v>1928</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J25" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="C26" s="31" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D26" s="12">
         <v>137274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="C27" s="31" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D27" s="12">
         <v>137274</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D28" s="8">
         <v>2577563</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G28">
         <v>1900</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D29" s="8">
         <v>2577563</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G29">
         <v>1900</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J29" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="8">
         <v>45734</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D31" s="8">
         <v>634025</v>
@@ -9871,293 +9926,293 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G31">
         <v>1947</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J31" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="8">
         <v>12549</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
         <v>1665254</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8">
         <v>1665254</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="15">
         <v>30000</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="15">
         <v>14000</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="15">
         <v>57000</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="15">
         <v>967</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="30">
         <v>5377</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="30">
         <v>1880</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="15">
         <v>9800</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="15">
         <v>260</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="15">
         <v>74000</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="36">
         <v>108988</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G45">
         <v>2009</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J45" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G46">
         <v>2009</v>
@@ -10165,459 +10220,459 @@
     </row>
     <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C49" s="17"/>
       <c r="E49" s="4" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C50" s="20"/>
       <c r="E50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C51" s="22"/>
       <c r="E51" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C52" s="22"/>
       <c r="E52" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C53" s="22"/>
       <c r="E53" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C54" s="22"/>
       <c r="E54" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="23">
         <v>1998182</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="24">
         <v>56882</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C58" s="27"/>
       <c r="D58" s="25">
         <v>3184</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="25">
         <v>6944</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="25">
         <v>23995</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="25">
         <v>6575</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="25">
         <v>9775</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="25">
         <v>7264</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="25">
         <v>22114</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="25">
         <v>10354</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D66" s="25">
         <v>274</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J66" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D67" s="25">
         <v>5741</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D68" s="25">
         <v>7731871</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G68" s="29">
         <v>1981</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J68" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="25">
         <v>7073228</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="25">
         <v>1179391</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="25">
         <v>173531</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -10633,7 +10688,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10647,27 +10702,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
         <v>209</v>
@@ -10681,10 +10736,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
         <v>209</v>
@@ -10698,10 +10753,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
         <v>209</v>
@@ -10715,10 +10770,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
         <v>209</v>
@@ -10732,10 +10787,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
         <v>209</v>
@@ -10749,10 +10804,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
         <v>216</v>
@@ -10766,10 +10821,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
         <v>216</v>
@@ -10783,10 +10838,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -10800,10 +10855,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
         <v>216</v>
@@ -10817,10 +10872,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
         <v>216</v>
@@ -10837,13 +10892,13 @@
         <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>841</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
         <v>211</v>
@@ -10851,84 +10906,84 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>839</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
         <v>247</v>
-      </c>
-      <c r="E13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D14" t="s">
         <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D16" t="s">
         <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>840</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
         <v>211</v>
@@ -10945,7 +11000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -10953,135 +11008,135 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" t="s">
         <v>479</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>480</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>481</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1" t="s">
         <v>482</v>
       </c>
-      <c r="F1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>484</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L1" t="s">
         <v>486</v>
       </c>
-      <c r="I1" t="s">
-        <v>485</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>487</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>488</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>489</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>490</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>491</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>492</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>493</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>494</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D4" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E4" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" t="s">
         <v>590</v>
-      </c>
-      <c r="C5" t="s">
-        <v>592</v>
-      </c>
-      <c r="E5" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" t="s">
         <v>590</v>
-      </c>
-      <c r="C6" t="s">
-        <v>592</v>
-      </c>
-      <c r="E6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E7" t="s">
         <v>590</v>
-      </c>
-      <c r="C7" t="s">
-        <v>592</v>
-      </c>
-      <c r="E7" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -11094,8 +11149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11105,30 +11160,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" t="s">
         <v>502</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="34">
@@ -11138,15 +11193,15 @@
         <v>3700000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="34">
@@ -11156,15 +11211,15 @@
         <v>8500239</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="34">
@@ -11174,18 +11229,18 @@
         <v>8210000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" s="34">
         <v>53409</v>
@@ -11194,15 +11249,15 @@
         <v>1665254</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="34">
@@ -11212,15 +11267,15 @@
         <v>439250</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="34">
@@ -11230,15 +11285,15 @@
         <v>108988</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="34">
@@ -11248,18 +11303,18 @@
         <v>7072081</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="294" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D9" s="34">
         <v>53409</v>
@@ -11268,15 +11323,15 @@
         <v>4805139</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="34">
@@ -11286,15 +11341,15 @@
         <v>184275</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="34">
@@ -11304,15 +11359,15 @@
         <v>102214</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="34">
@@ -11322,15 +11377,15 @@
         <v>14963449</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D13" s="34">
         <v>53409</v>
@@ -11339,15 +11394,15 @@
         <v>102214</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="D14" s="34">
         <v>53409</v>
@@ -11356,15 +11411,15 @@
         <v>102214</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D15" s="34">
         <v>53409</v>
@@ -11373,15 +11428,15 @@
         <v>102214</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D16" s="34">
         <v>53409</v>
@@ -11390,7 +11445,7 @@
         <v>102214</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -11401,178 +11456,209 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="D2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B6" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B9" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>778</v>
+        <v>837</v>
       </c>
       <c r="B10" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="C11" t="s">
+        <v>777</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="B13" t="s">
+        <v>846</v>
+      </c>
+      <c r="C13" t="s">
+        <v>844</v>
+      </c>
+      <c r="D13" t="s">
         <v>782</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E13" t="s">
         <v>783</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>780</v>
+      <c r="F13" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -11597,15 +11683,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B2" s="29">
         <v>1960.91</v>
@@ -11613,7 +11699,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B3" s="33">
         <v>39011882</v>

--- a/backend/resource/neo4j.xlsx
+++ b/backend/resource/neo4j.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="864">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工具书，工具书阅览室，工具书区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>古籍馆_F2_书库2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1865,10 +1861,6 @@
   </si>
   <si>
     <t>学位论文（篇）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字学位论文，学位论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2724,9 +2716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24小时（自助）还书处</t>
-  </si>
-  <si>
     <t>证件</t>
     <rPh sb="0" eb="1">
       <t>zheng jian</t>
@@ -3221,13 +3210,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>fan wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理范围</t>
-    <rPh sb="0" eb="1">
-      <t>di li fan wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3369,10 +3351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论文，中文论文，中国论文，中文学位论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新善本特藏1954年开始征集，主要由中国早期革命出版物、解放区印刷出版物等文献组成，它包括：辛亥革命、“五四”运动时期出版的革命进步刊物；马列主义经典作家著作的早期译本，以及宣传马列主义的书刊资料；解放前全国各地出版的毛泽东等老一辈无产阶级革命家著作的油印本、单行本、选集本；我党、我军及各革命团体编印出版的革命书刊资料；著名外籍友好人士的著作和部分中译本；以及少量太平天国、义和团运动的历史文献等，是党史研究、马列主义早期传播研究和近代史研究的重要史料。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3574,13 +3552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉语报纸，中国报纸，中文报纸，报纸</t>
-    <rPh sb="15" eb="16">
-      <t>bao zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外文舆图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3663,10 +3634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科学技术咨询室，社会科学咨询室，综合咨询台，企业信息服务中心，立法决策服务部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开放27个阅览室，采取开架或闭架服务的方式，提供中外文书刊报、古籍善本特藏、特色专藏文献、缩微文献、数字资源的阅览服务，其中开架服务的阅览室达17个。</t>
   </si>
   <si>
@@ -4063,10 +4030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工具书区，综合阅览室，外文文献第一阅览室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数字音频</t>
     <rPh sb="0" eb="1">
       <t>shu zi</t>
@@ -4090,32 +4053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电子报纸，数字报纸</t>
-    <rPh sb="0" eb="1">
-      <t>dian zi tu s</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu zi bao zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子期刊，数字期刊</t>
-    <rPh sb="0" eb="1">
-      <t>dian zi tu s</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi k</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu zi qi k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文献提供</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4186,6 +4123,151 @@
     <rPh sb="9" eb="10">
       <t>du zhe ka</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网络服务</t>
+  </si>
+  <si>
+    <t>无线网络服务</t>
+  </si>
+  <si>
+    <t>无线网络服务，上网，连wifi，连无线</t>
+    <rPh sb="7" eb="8">
+      <t>shang wang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lian wu xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网络服务，用电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种新型的人机交互设备，读者无需键盘和鼠标，只需手指轻触液晶显示屏的图形、文字或按钮，便可实现触摸体验系统内数字资源的浏览与互动，其方便、快捷、人性化的设计受到了读者的欢迎。</t>
+  </si>
+  <si>
+    <t>少年儿童馆</t>
+    <rPh sb="0" eb="1">
+      <t>shao nian er tong g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字资源触摸体验服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字资源触摸体验服务，触摸屏阅读服务，触摸屏阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字共享空间</t>
+    <rPh sb="0" eb="1">
+      <t>shu zi g x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>komg jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技查新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通无线网络接入服务，完成总馆南区、总馆北区和文津街馆区的全面覆盖。</t>
+  </si>
+  <si>
+    <t>建立了万兆光纤骨干网络，具备6000多个网络节点的千兆桌面接入能力，高达数百兆的互联网出口带宽同时连接到中国联通和中国电信。拥有到中国教育网、中国科技网、政务外网、中央党校图书馆、中央社会主义学院、广电网、歌华有线、中国残联、国务院法制办的互联专线，同时参与我国下一代互联网（CNGI）项目，拥有1000兆IPv6连接。</t>
+  </si>
+  <si>
+    <t>科学技术咨询室，社会科学咨询室，综合咨询台，企业信息服务中心，立法决策服务部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持阅读器服务</t>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持阅读器，手持阅读器服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌上国图阅读器是国家图书馆为读者定制的一款电纸书，采用电子纸技术和电子墨水技术，能够实现健康、不伤眼的阅读。这款手持阅读器装载了大量国图精品图书、图片、期刊，并装有大量国图举办讲座的音频，让读者能够全方位享受阅读乐趣。</t>
+  </si>
+  <si>
+    <t>查找方式</t>
+    <rPh sb="0" eb="1">
+      <t>cha zhao fang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPAC系统</t>
+    <rPh sb="4" eb="5">
+      <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具书阅览室，工具书区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具书区，综合阅览室，外文文献第一阅览室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语报纸，中国报纸，中文报纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子报纸，数字报纸，报纸</t>
+    <rPh sb="0" eb="1">
+      <t>dian zi tu s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu zi bao zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子期刊，数字期刊，期刊</t>
+    <rPh sb="0" eb="1">
+      <t>dian zi tu s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi k</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu zi qi k</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文论文，中国论文，中文学位论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字学位论文，学位论文，论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4402,7 +4484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4444,8 +4526,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4525,8 +4611,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -4546,6 +4633,8 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4564,6 +4653,8 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4843,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4861,79 +4952,80 @@
     <col min="11" max="11" width="37.6640625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="45.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" t="s">
         <v>476</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>477</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>479</v>
       </c>
-      <c r="F1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>481</v>
       </c>
-      <c r="H1" t="s">
-        <v>483</v>
-      </c>
       <c r="I1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="N1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O1" t="s">
+        <v>514</v>
+      </c>
+      <c r="P1" t="s">
         <v>515</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>516</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>517</v>
       </c>
-      <c r="Q1" t="s">
-        <v>518</v>
-      </c>
-      <c r="R1" t="s">
-        <v>519</v>
-      </c>
       <c r="S1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="T1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="U1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>857</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -4945,7 +5037,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
@@ -4963,25 +5055,28 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="M2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P2" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q2" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R2" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S2" t="s">
-        <v>531</v>
+        <v>529</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -4989,65 +5084,65 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P3" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q3" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R3" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
         <v>333</v>
-      </c>
-      <c r="B4" t="s">
-        <v>334</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q4" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R4" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -5056,27 +5151,27 @@
         <v>131</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P5" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q5" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R5" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -5088,7 +5183,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
@@ -5103,28 +5198,28 @@
         <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P6" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q6" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R6" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -5135,51 +5230,51 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q7" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G8" t="s">
         <v>89</v>
@@ -5191,33 +5286,33 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P8" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q8" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R8" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -5236,33 +5331,33 @@
         <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L9" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P9" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q9" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R9" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -5274,7 +5369,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
@@ -5283,25 +5378,25 @@
         <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P10" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q10" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R10" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -5309,28 +5404,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P11" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q11" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R11" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -5338,28 +5433,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K12" t="s">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P12" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q12" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R12" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -5367,36 +5462,36 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P13" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q13" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R13" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -5417,33 +5512,33 @@
         <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P14" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q14" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R14" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -5464,33 +5559,33 @@
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P15" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q15" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R15" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -5499,7 +5594,7 @@
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -5508,28 +5603,28 @@
         <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P16" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q16" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R16" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5552,30 +5647,30 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P17" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q17" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R17" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B18" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
@@ -5593,28 +5688,28 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
+        <v>644</v>
+      </c>
+      <c r="L18" t="s">
         <v>647</v>
       </c>
-      <c r="L18" t="s">
-        <v>650</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P18" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q18" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R18" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S18" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -5637,146 +5732,146 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P19" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q19" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R19" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K20" t="s">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P20" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q20" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R20" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K21" t="s">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P21" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q21" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R21" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S21" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K22" t="s">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P22" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q22" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R22" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K23" t="s">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P23" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q23" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R23" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S23" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B24" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C24" t="s">
         <v>123</v>
@@ -5806,33 +5901,36 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P24" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q24" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R24" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S24" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -5841,7 +5939,7 @@
         <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -5856,39 +5954,39 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s">
         <v>159</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P25" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q25" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R25" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B26" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -5912,39 +6010,42 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P26" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q26" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R26" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S26" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B27" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -5968,33 +6069,36 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P27" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q27" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R27" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S27" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
@@ -6006,7 +6110,7 @@
         <v>115</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G28" t="s">
         <v>88</v>
@@ -6024,33 +6128,33 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P28" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q28" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R28" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -6080,33 +6184,36 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P29" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q29" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R29" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S29" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -6127,62 +6234,62 @@
         <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L30" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P30" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q30" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R30" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S30" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K31" t="s">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P31" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q31" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R31" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S31" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B32" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -6191,7 +6298,7 @@
         <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -6212,56 +6319,56 @@
         <v>131</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P32" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q32" s="38" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="R32" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S32" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P33" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q33" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R33" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -6273,7 +6380,7 @@
         <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
         <v>85</v>
@@ -6288,33 +6395,33 @@
         <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P34" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q34" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R34" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S34" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -6323,7 +6430,7 @@
         <v>152</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>83</v>
@@ -6338,33 +6445,36 @@
         <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P35" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q35" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R35" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S35" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -6388,33 +6498,33 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s">
         <v>119</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P36" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q36" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R36" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S36" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -6444,33 +6554,36 @@
         <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P37" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q37" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R37" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S37" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -6479,10 +6592,10 @@
         <v>146</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
         <v>91</v>
@@ -6494,33 +6607,36 @@
         <v>15</v>
       </c>
       <c r="L38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s">
         <v>119</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P38" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q38" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R38" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" t="s">
         <v>167</v>
@@ -6544,39 +6660,39 @@
         <v>15</v>
       </c>
       <c r="L39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P39" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q39" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R39" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
         <v>154</v>
@@ -6591,30 +6707,30 @@
         <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P40" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q40" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R40" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S40" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -6623,7 +6739,7 @@
         <v>153</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
         <v>154</v>
@@ -6638,30 +6754,30 @@
         <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P41" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q41" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R41" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S41" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
@@ -6670,7 +6786,7 @@
         <v>157</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
@@ -6685,30 +6801,30 @@
         <v>15</v>
       </c>
       <c r="L42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P42" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q42" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R42" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
@@ -6717,7 +6833,7 @@
         <v>155</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
         <v>156</v>
@@ -6732,30 +6848,30 @@
         <v>15</v>
       </c>
       <c r="L43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P43" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q43" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R43" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S43" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -6764,7 +6880,7 @@
         <v>149</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
         <v>61</v>
@@ -6779,33 +6895,33 @@
         <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s">
         <v>119</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P44" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q44" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R44" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S44" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -6835,28 +6951,31 @@
         <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P45" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q45" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R45" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S45" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -6885,33 +7004,36 @@
         <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P46" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q46" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R46" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S46" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -6920,7 +7042,7 @@
         <v>160</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F47" t="s">
         <v>68</v>
@@ -6935,33 +7057,33 @@
         <v>15</v>
       </c>
       <c r="L47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M47" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P47" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q47" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R47" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S47" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
@@ -6970,7 +7092,7 @@
         <v>161</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
         <v>54</v>
@@ -6985,33 +7107,33 @@
         <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M48" t="s">
         <v>159</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P48" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q48" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R48" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S48" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -7020,7 +7142,7 @@
         <v>162</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -7035,33 +7157,33 @@
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M49" t="s">
         <v>163</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P49" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q49" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R49" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S49" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" t="s">
         <v>358</v>
-      </c>
-      <c r="B50" t="s">
-        <v>359</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
@@ -7070,7 +7192,7 @@
         <v>164</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
         <v>56</v>
@@ -7085,33 +7207,33 @@
         <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M50" t="s">
         <v>165</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P50" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q50" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R50" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S50" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -7120,7 +7242,7 @@
         <v>168</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F51" t="s">
         <v>78</v>
@@ -7135,36 +7257,36 @@
         <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P51" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q51" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R51" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S51" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B52" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G52" t="s">
         <v>28</v>
@@ -7176,30 +7298,30 @@
         <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P52" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q52" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R52" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S52" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
         <v>76</v>
@@ -7208,7 +7330,7 @@
         <v>169</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
         <v>79</v>
@@ -7223,36 +7345,36 @@
         <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P53" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q53" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R53" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S53" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="90" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="90" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -7276,39 +7398,42 @@
         <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M54" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P54" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q54" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R54" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S54" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
@@ -7332,33 +7457,33 @@
         <v>15</v>
       </c>
       <c r="L55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M55" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P55" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q55" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R55" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S55" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" t="s">
         <v>48</v>
@@ -7388,33 +7513,33 @@
         <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M56" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P56" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q56" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R56" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S56" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -7423,7 +7548,7 @@
         <v>171</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
         <v>72</v>
@@ -7438,28 +7563,31 @@
         <v>15</v>
       </c>
       <c r="L57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P57" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q57" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R57" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S57" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -7488,36 +7616,36 @@
         <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P58" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q58" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R58" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S58" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
         <v>46</v>
@@ -7532,30 +7660,30 @@
         <v>15</v>
       </c>
       <c r="L59" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P59" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q59" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R59" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S59" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B60" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -7570,283 +7698,283 @@
         <v>15</v>
       </c>
       <c r="L60" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P60" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q60" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R60" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S60" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L61" t="s">
+        <v>242</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="P61" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>785</v>
+      </c>
+      <c r="R61" t="s">
+        <v>794</v>
+      </c>
+      <c r="S61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="K62" t="s">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s">
         <v>243</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="P61" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>792</v>
-      </c>
-      <c r="R61" t="s">
-        <v>801</v>
-      </c>
-      <c r="S61" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="N62" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="P62" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>785</v>
+      </c>
+      <c r="R62" t="s">
+        <v>794</v>
+      </c>
+      <c r="S62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>177</v>
       </c>
-      <c r="B62" t="s">
-        <v>354</v>
-      </c>
-      <c r="K62" t="s">
-        <v>507</v>
-      </c>
-      <c r="L62" t="s">
-        <v>244</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="P62" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>792</v>
-      </c>
-      <c r="R62" t="s">
-        <v>801</v>
-      </c>
-      <c r="S62" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" t="s">
+        <v>505</v>
+      </c>
+      <c r="L63" t="s">
+        <v>243</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="P63" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>785</v>
+      </c>
+      <c r="R63" t="s">
+        <v>794</v>
+      </c>
+      <c r="S63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
-        <v>353</v>
-      </c>
-      <c r="K63" t="s">
-        <v>507</v>
-      </c>
-      <c r="L63" t="s">
-        <v>244</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="P63" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>792</v>
-      </c>
-      <c r="R63" t="s">
-        <v>801</v>
-      </c>
-      <c r="S63" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>179</v>
-      </c>
       <c r="B64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K64" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P64" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q64" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R64" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K65" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P65" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q65" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R65" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S65" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K66" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P66" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q66" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R66" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S66" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K67" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P67" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q67" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R67" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S67" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K68" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P68" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q68" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R68" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S68" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K69" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P69" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q69" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R69" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S69" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -7854,16 +7982,16 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C70" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
         <v>44</v>
@@ -7875,74 +8003,74 @@
         <v>28</v>
       </c>
       <c r="K70" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M70" t="s">
         <v>165</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P70" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q70" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K71" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P71" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q71" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R71" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S71" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C72" t="s">
         <v>43</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F72" t="s">
         <v>45</v>
@@ -7954,28 +8082,28 @@
         <v>28</v>
       </c>
       <c r="K72" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M72" t="s">
         <v>173</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P72" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q72" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R72" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S72" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -7983,16 +8111,16 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73" t="s">
         <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F73" t="s">
         <v>45</v>
@@ -8004,28 +8132,28 @@
         <v>28</v>
       </c>
       <c r="K73" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M73" t="s">
         <v>174</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P73" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q73" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R73" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -8033,16 +8161,16 @@
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C74" t="s">
         <v>43</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
         <v>45</v>
@@ -8054,115 +8182,115 @@
         <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M74" t="s">
         <v>175</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P74" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q74" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R74" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S74" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K75" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P75" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q75" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R75" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S75" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K76" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P76" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q76" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R76" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S76" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K77" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P77" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q77" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R77" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S77" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -8170,7 +8298,7 @@
         <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
         <v>143</v>
@@ -8182,25 +8310,25 @@
         <v>142</v>
       </c>
       <c r="L78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M78" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P78" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q78" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R78" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S78" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="60" x14ac:dyDescent="0.2">
@@ -8208,13 +8336,13 @@
         <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
@@ -8241,22 +8369,22 @@
         <v>131</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P79" s="38" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="Q79" s="38" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="R79" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S79" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="75" x14ac:dyDescent="0.2">
@@ -8264,13 +8392,13 @@
         <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C80" t="s">
         <v>135</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -8297,22 +8425,22 @@
         <v>134</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P80" s="38" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="Q80" s="38" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="R80" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S80" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -8320,13 +8448,13 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C81" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
@@ -8353,22 +8481,22 @@
         <v>139</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="R81" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S81" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -8376,13 +8504,13 @@
         <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C82" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -8409,36 +8537,36 @@
         <v>131</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P82" s="38" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="Q82" s="38" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="R82" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S82" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>550</v>
+      </c>
+      <c r="B83" t="s">
         <v>552</v>
       </c>
-      <c r="B83" t="s">
-        <v>554</v>
-      </c>
       <c r="C83" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
@@ -8462,22 +8590,22 @@
         <v>131</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P83" s="38" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="Q83" s="38" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="R83" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S83" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -8491,42 +8619,42 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N84" t="s">
+        <v>528</v>
+      </c>
+      <c r="P84" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>787</v>
+      </c>
+      <c r="R84" t="s">
+        <v>794</v>
+      </c>
+      <c r="S84" t="s">
         <v>530</v>
-      </c>
-      <c r="P84" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>794</v>
-      </c>
-      <c r="R84" t="s">
-        <v>801</v>
-      </c>
-      <c r="S84" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B85" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G85" t="s">
         <v>88</v>
@@ -8541,28 +8669,28 @@
         <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L85" t="s">
         <v>131</v>
       </c>
       <c r="M85" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N85" t="s">
+        <v>528</v>
+      </c>
+      <c r="P85" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>787</v>
+      </c>
+      <c r="R85" t="s">
+        <v>794</v>
+      </c>
+      <c r="S85" t="s">
         <v>530</v>
-      </c>
-      <c r="P85" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>794</v>
-      </c>
-      <c r="R85" t="s">
-        <v>801</v>
-      </c>
-      <c r="S85" t="s">
-        <v>532</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -8570,13 +8698,13 @@
     </row>
     <row r="86" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B86" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
@@ -8606,22 +8734,22 @@
         <v>131</v>
       </c>
       <c r="M86" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P86" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="Q86" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="R86" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="S86" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T86">
         <v>1</v>
@@ -8629,10 +8757,10 @@
     </row>
     <row r="87" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K87" t="s">
         <v>0</v>
@@ -8641,36 +8769,36 @@
         <v>131</v>
       </c>
       <c r="N87" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O87" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P87" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="Q87" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="R87" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="S87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="T87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K88" t="s">
         <v>0</v>
@@ -8679,33 +8807,33 @@
         <v>131</v>
       </c>
       <c r="N88" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P88" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="Q88" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="R88" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="S88" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="T88" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="U88" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K89" t="s">
         <v>0</v>
@@ -8714,36 +8842,36 @@
         <v>131</v>
       </c>
       <c r="N89" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O89" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P89" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="Q89" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="R89" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="S89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="T89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="U89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K90" t="s">
         <v>0</v>
@@ -8752,33 +8880,33 @@
         <v>131</v>
       </c>
       <c r="N90" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="P90" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="Q90" t="s">
+        <v>791</v>
+      </c>
+      <c r="R90" t="s">
         <v>798</v>
       </c>
-      <c r="R90" t="s">
-        <v>805</v>
-      </c>
       <c r="S90" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T90" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="U90" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K91" t="s">
         <v>0</v>
@@ -8787,33 +8915,33 @@
         <v>131</v>
       </c>
       <c r="N91" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P91" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="Q91" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="R91" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="S91" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="T91" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="U91" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K92" t="s">
         <v>0</v>
@@ -8822,28 +8950,28 @@
         <v>131</v>
       </c>
       <c r="N92" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O92" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="Q92" t="s">
+        <v>793</v>
+      </c>
+      <c r="R92" t="s">
         <v>800</v>
       </c>
-      <c r="R92" t="s">
-        <v>807</v>
-      </c>
       <c r="S92" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="T92" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="U92" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -8882,34 +9010,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -8930,16 +9058,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8947,52 +9075,52 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B4" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B5" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -9013,117 +9141,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
         <v>595</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>597</v>
-      </c>
-      <c r="G1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" t="s">
         <v>596</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>598</v>
-      </c>
-      <c r="G2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D3" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D5" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -9137,8 +9265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9153,341 +9281,341 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1" t="s">
         <v>500</v>
       </c>
-      <c r="D1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" t="s">
-        <v>502</v>
-      </c>
       <c r="G1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J1" t="s">
         <v>674</v>
       </c>
-      <c r="H1" t="s">
-        <v>675</v>
-      </c>
-      <c r="I1" t="s">
-        <v>676</v>
-      </c>
-      <c r="J1" t="s">
-        <v>677</v>
-      </c>
       <c r="K1" t="s">
-        <v>678</v>
+        <v>855</v>
       </c>
       <c r="L1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="8">
         <v>1722826</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
         <v>367806</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="G4" s="29">
         <v>1984</v>
       </c>
       <c r="I4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
         <v>367806</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="29">
         <v>1984</v>
       </c>
       <c r="I5" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
         <v>367806</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="29"/>
       <c r="I6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>367806</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="29">
         <v>1984</v>
       </c>
       <c r="I7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
         <v>2337712</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>676822</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I11" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
         <v>1214830</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G13" s="29">
         <v>1984</v>
       </c>
       <c r="I13" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G14" s="29">
         <v>1984</v>
       </c>
       <c r="I14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D15" s="8">
         <v>341573</v>
@@ -9496,27 +9624,27 @@
         <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15">
         <v>1910</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="345" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D16" s="8">
         <v>341573</v>
@@ -9525,399 +9653,399 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G16">
         <v>1954</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D17" s="8">
         <v>341573</v>
       </c>
       <c r="E17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17">
         <v>1910</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D18" s="8">
         <v>183083</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G18">
         <v>1929</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D19" s="8">
         <v>183083</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G19">
         <v>1929</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="8">
         <v>172022</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D21">
         <v>32941</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G21" s="43">
         <v>1929</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="J21" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="C22" s="31" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D22" s="8">
         <v>110430</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="G22">
         <v>1954</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D23" s="8">
         <v>232503</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I23" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="J23" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="C24" s="29" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D24" s="8">
         <v>28972</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I24" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D25" s="12">
         <v>137274</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G25" s="29">
         <v>1928</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="J25" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D26" s="12">
         <v>137274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D27" s="12">
         <v>137274</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>700</v>
+        <v>862</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D28" s="8">
         <v>2577563</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G28">
         <v>1900</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="C29" s="29" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D29" s="8">
         <v>2577563</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G29">
         <v>1900</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J29" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>416</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="8">
         <v>45734</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="C31" s="29" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D31" s="8">
         <v>634025</v>
@@ -9926,293 +10054,293 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31">
         <v>1947</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="J31" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>419</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>420</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="8">
         <v>12549</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
         <v>1665254</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8">
         <v>1665254</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="15">
         <v>30000</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="15">
         <v>14000</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="15">
         <v>57000</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="15">
         <v>967</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="30">
         <v>5377</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="30">
         <v>1880</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="15">
         <v>9800</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="15">
         <v>260</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="15">
         <v>74000</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="36">
         <v>108988</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E45" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E45" t="s">
-        <v>280</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G45">
         <v>2009</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="J45" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G46">
         <v>2009</v>
@@ -10220,459 +10348,462 @@
     </row>
     <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" s="17"/>
       <c r="E49" s="4" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C50" s="20"/>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" s="22"/>
       <c r="E51" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="22"/>
       <c r="E52" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C53" s="22"/>
       <c r="E53" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C54" s="22"/>
       <c r="E54" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="23">
         <v>1998182</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="24">
         <v>56882</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C58" s="27"/>
       <c r="D58" s="25">
         <v>3184</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="25">
         <v>6944</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="25">
         <v>23995</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="25">
         <v>6575</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="25">
         <v>9775</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="25">
         <v>7264</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="25">
         <v>22114</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="25">
         <v>10354</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="C66" s="31" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D66" s="25">
         <v>274</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="J66" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="I66" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="J66" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="B67" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D67" s="25">
         <v>5741</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>470</v>
+        <v>863</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D68" s="25">
         <v>7731871</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G68" s="29">
         <v>1981</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="J68" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="K68" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="25">
         <v>7073228</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="25">
         <v>1179391</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="B71" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="25">
         <v>173531</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -10702,291 +10833,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" t="s">
-        <v>442</v>
-      </c>
       <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
         <v>443</v>
       </c>
-      <c r="B3" t="s">
-        <v>444</v>
-      </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" t="s">
         <v>445</v>
       </c>
-      <c r="B4" t="s">
-        <v>446</v>
-      </c>
       <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" t="s">
         <v>447</v>
       </c>
-      <c r="B5" t="s">
-        <v>448</v>
-      </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" t="s">
         <v>449</v>
       </c>
-      <c r="B6" t="s">
-        <v>450</v>
-      </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" t="s">
         <v>451</v>
       </c>
-      <c r="B7" t="s">
-        <v>452</v>
-      </c>
       <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
         <v>216</v>
       </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" t="s">
         <v>453</v>
       </c>
-      <c r="B8" t="s">
-        <v>454</v>
-      </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" t="s">
         <v>455</v>
       </c>
-      <c r="B9" t="s">
-        <v>456</v>
-      </c>
       <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
         <v>216</v>
-      </c>
-      <c r="D9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" t="s">
         <v>457</v>
       </c>
-      <c r="B10" t="s">
-        <v>458</v>
-      </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" t="s">
         <v>459</v>
       </c>
-      <c r="B11" t="s">
-        <v>460</v>
-      </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
         <v>226</v>
       </c>
-      <c r="B14" t="s">
-        <v>227</v>
-      </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" t="s">
         <v>224</v>
-      </c>
-      <c r="E15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
         <v>229</v>
-      </c>
-      <c r="B16" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" t="s">
-        <v>505</v>
-      </c>
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -11008,135 +11139,135 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" t="s">
         <v>476</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>477</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>479</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1" t="s">
         <v>480</v>
       </c>
-      <c r="G1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K1" t="s">
         <v>483</v>
       </c>
-      <c r="I1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>484</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>485</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>486</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>487</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>488</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>489</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>490</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>491</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>492</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D4" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E4" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" t="s">
         <v>587</v>
       </c>
-      <c r="C5" t="s">
-        <v>589</v>
-      </c>
       <c r="E5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" t="s">
         <v>587</v>
       </c>
-      <c r="C6" t="s">
-        <v>589</v>
-      </c>
       <c r="E6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" t="s">
         <v>587</v>
       </c>
-      <c r="C7" t="s">
-        <v>589</v>
-      </c>
       <c r="E7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -11147,10 +11278,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A9" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11158,32 +11289,35 @@
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="E1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="34">
@@ -11193,15 +11327,15 @@
         <v>3700000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="34">
@@ -11211,15 +11345,15 @@
         <v>8500239</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="34">
@@ -11229,18 +11363,18 @@
         <v>8210000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="34">
         <v>53409</v>
@@ -11249,15 +11383,15 @@
         <v>1665254</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="34">
@@ -11267,15 +11401,15 @@
         <v>439250</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="34">
@@ -11285,15 +11419,15 @@
         <v>108988</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="34">
@@ -11303,18 +11437,18 @@
         <v>7072081</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="294" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="294" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D9" s="34">
         <v>53409</v>
@@ -11323,15 +11457,15 @@
         <v>4805139</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>743</v>
+        <v>859</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="34">
@@ -11341,15 +11475,15 @@
         <v>184275</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="34">
@@ -11359,15 +11493,15 @@
         <v>102214</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="34">
@@ -11377,15 +11511,15 @@
         <v>14963449</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D13" s="34">
         <v>53409</v>
@@ -11394,15 +11528,15 @@
         <v>102214</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="D14" s="34">
         <v>53409</v>
@@ -11411,15 +11545,15 @@
         <v>102214</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="D15" s="34">
         <v>53409</v>
@@ -11428,15 +11562,15 @@
         <v>102214</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="D16" s="34">
         <v>53409</v>
@@ -11445,7 +11579,7 @@
         <v>102214</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11456,209 +11590,325 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" t="s">
         <v>579</v>
       </c>
-      <c r="B2" t="s">
-        <v>581</v>
-      </c>
       <c r="C2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="D2" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E2" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F2" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3" t="s">
         <v>580</v>
       </c>
-      <c r="B3" t="s">
-        <v>582</v>
-      </c>
       <c r="C3" t="s">
-        <v>603</v>
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F3" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C4" t="s">
-        <v>781</v>
+        <v>774</v>
+      </c>
+      <c r="D4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F4" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E5" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C6" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C7" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="B9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="B10" t="s">
         <v>767</v>
-      </c>
-      <c r="B9" t="s">
-        <v>768</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>837</v>
-      </c>
-      <c r="B10" t="s">
-        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
       <c r="G10" s="29" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C11" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>842</v>
+        <v>848</v>
+      </c>
+      <c r="B12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="B13" t="s">
+        <v>836</v>
+      </c>
+      <c r="C13" t="s">
+        <v>834</v>
+      </c>
+      <c r="D13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="C14" t="s">
+        <v>847</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
         <v>845</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>846</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>844</v>
       </c>
-      <c r="D13" t="s">
-        <v>782</v>
-      </c>
-      <c r="E13" t="s">
-        <v>783</v>
-      </c>
-      <c r="F13" t="s">
-        <v>784</v>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="C17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -11683,15 +11933,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B2" s="29">
         <v>1960.91</v>
@@ -11699,7 +11949,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B3" s="33">
         <v>39011882</v>

--- a/backend/resource/neo4j.xlsx
+++ b/backend/resource/neo4j.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="17540" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28120" windowHeight="17540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="903">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4590,7 +4590,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工具书区，中文图书阅览区， 中文图书借阅区，视听阅览区，中文报纸区，少年儿童馆亲子阅览区，外文文献第一阅览室，外文文献第二阅览室，敦煌吐鲁番资料阅览室，法律参考阅览室</t>
+    <t>工具书区，中文图书阅览区，中文图书借阅区，视听阅览区，中文报纸区，少年儿童馆亲子阅览区，外文文献第一阅览室，外文文献第二阅览室，敦煌吐鲁番资料阅览室，法律参考阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5278,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A33" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9509,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9681,6 +9681,9 @@
       <c r="C8" s="27" t="s">
         <v>704</v>
       </c>
+      <c r="D8" t="s">
+        <v>714</v>
+      </c>
       <c r="G8" s="27" t="s">
         <v>701</v>
       </c>
@@ -9717,6 +9720,9 @@
       </c>
       <c r="C10" t="s">
         <v>901</v>
+      </c>
+      <c r="D10" t="s">
+        <v>714</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>815</v>
@@ -12395,7 +12401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/backend/resource/neo4j.xlsx
+++ b/backend/resource/neo4j.xlsx
@@ -9,26 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28120" windowHeight="17540" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
     <sheet name="card" sheetId="7" r:id="rId2"/>
     <sheet name="area" sheetId="4" r:id="rId3"/>
     <sheet name="resource" sheetId="2" r:id="rId4"/>
-    <sheet name="floor" sheetId="3" r:id="rId5"/>
-    <sheet name="activity" sheetId="5" r:id="rId6"/>
-    <sheet name="resource_type" sheetId="6" r:id="rId7"/>
-    <sheet name="service" sheetId="8" r:id="rId8"/>
-    <sheet name="dataset" sheetId="12" r:id="rId9"/>
-    <sheet name="res" sheetId="9" r:id="rId10"/>
-    <sheet name="task" sheetId="10" r:id="rId11"/>
-    <sheet name="goods" sheetId="11" r:id="rId12"/>
+    <sheet name="工作表1" sheetId="13" r:id="rId5"/>
+    <sheet name="floor" sheetId="3" r:id="rId6"/>
+    <sheet name="activity" sheetId="5" r:id="rId7"/>
+    <sheet name="resource_type" sheetId="6" r:id="rId8"/>
+    <sheet name="service" sheetId="8" r:id="rId9"/>
+    <sheet name="dataset" sheetId="12" r:id="rId10"/>
+    <sheet name="res" sheetId="9" r:id="rId11"/>
+    <sheet name="task" sheetId="10" r:id="rId12"/>
+    <sheet name="goods" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">resource!$A$1:$F$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">room!$A$1:$M$78</definedName>
-    <definedName name="OLE_LINK3" localSheetId="7">service!$G$6</definedName>
+    <definedName name="OLE_LINK3" localSheetId="8">service!$G$6</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="939">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2915,22 +2916,6 @@
       <t>ying wen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故宫书画图录</t>
-  </si>
-  <si>
-    <t>精品</t>
-    <rPh sb="0" eb="1">
-      <t>jing p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清史馆未刊记志表传稿本专辑</t>
-  </si>
-  <si>
-    <t>李敖大全集</t>
   </si>
   <si>
     <t>学位论文是国家图书馆特色专藏之一。国家图书馆学位论文收藏中心是国务院学位委员会指定的全国唯一负责全面收藏和整理我国学位论文的专门机构，也是人事部专家司确定的唯一负责全面入藏博士后研究报告的专门机构。</t>
@@ -4593,12 +4578,279 @@
     <t>工具书区，中文图书阅览区，中文图书借阅区，视听阅览区，中文报纸区，少年儿童馆亲子阅览区，外文文献第一阅览室，外文文献第二阅览室，敦煌吐鲁番资料阅览室，法律参考阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>类别</t>
+    <rPh sb="0" eb="1">
+      <t>lei bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼王</t>
+    <rPh sb="0" eb="1">
+      <t>hai zei wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <rPh sb="0" eb="1">
+      <t>zuo zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海王，海贼王</t>
+    <rPh sb="0" eb="1">
+      <t>hang hai wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <rPh sb="0" eb="1">
+      <t>man hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾田荣一郎</t>
+    <rPh sb="0" eb="1">
+      <t>wei tian rong yi lang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通图书</t>
+  </si>
+  <si>
+    <t>名侦探柯南</t>
+    <rPh sb="0" eb="1">
+      <t>ming zhen tan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯南，名侦探柯南</t>
+    <rPh sb="0" eb="1">
+      <t>ke nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山刚昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徒生童话</t>
+    <rPh sb="0" eb="1">
+      <t>an tu sh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童话</t>
+    <rPh sb="0" eb="1">
+      <t>t h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林童话</t>
+    <rPh sb="0" eb="1">
+      <t>ge lin tong hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徒生</t>
+    <rPh sb="0" eb="1">
+      <t>an tu sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林</t>
+    <rPh sb="0" eb="1">
+      <t>ge lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚天屠龙记</t>
+    <rPh sb="0" eb="1">
+      <t>yi tian tu long ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪山飞狐</t>
+    <rPh sb="0" eb="1">
+      <t>xue hsan fei hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武侠</t>
+    <rPh sb="0" eb="1">
+      <t>wu xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武侠</t>
+    <rPh sb="0" eb="1">
+      <t>wu xai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庸</t>
+    <rPh sb="0" eb="1">
+      <t>jin yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庸</t>
+    <rPh sb="0" eb="1">
+      <t>jin y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致我们终将逝去的青春</t>
+    <rPh sb="0" eb="1">
+      <t>zhi wo men</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi qu de qin c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing chun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春文学</t>
+    <rPh sb="0" eb="1">
+      <t>qing chun wen x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛夷坞</t>
+    <rPh sb="0" eb="1">
+      <t>xin yi wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左耳</t>
+    <rPh sb="0" eb="1">
+      <t>zuo er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶雪漫</t>
+    <rPh sb="0" eb="1">
+      <t>rao xue m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <rPh sb="0" eb="1">
+      <t>li shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万历十五年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄仁宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国史纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张荫麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性文学</t>
+    <rPh sb="0" eb="1">
+      <t>nü x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红玫瑰与白玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半生缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张爱玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红楼梦</t>
+    <rPh sb="0" eb="1">
+      <t>hong lou m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名著</t>
+    <rPh sb="0" eb="1">
+      <t>ming z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪芹</t>
+    <rPh sb="0" eb="1">
+      <t>cao xue qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记</t>
+    <rPh sb="0" eb="1">
+      <t>xi you ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴承恩</t>
+    <rPh sb="0" eb="1">
+      <t>wu cheng en</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4776,6 +5028,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.9"/>
+      <color rgb="FF666666"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4862,7 +5120,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4945,6 +5203,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -5278,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5361,7 +5620,7 @@
         <v>511</v>
       </c>
       <c r="U1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -5369,7 +5628,7 @@
         <v>572</v>
       </c>
       <c r="B2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -5399,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="M2" t="s">
         <v>504</v>
@@ -5408,16 +5667,16 @@
         <v>493</v>
       </c>
       <c r="P2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="R2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -5440,16 +5699,16 @@
         <v>493</v>
       </c>
       <c r="P3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="R3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -5466,25 +5725,25 @@
         <v>230</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O4" s="35"/>
       <c r="P4" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B5" t="s">
         <v>322</v>
@@ -5496,20 +5755,20 @@
         <v>232</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -5553,20 +5812,20 @@
         <v>504</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -5589,20 +5848,20 @@
         <v>232</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S7" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
@@ -5640,20 +5899,20 @@
         <v>594</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -5686,20 +5945,20 @@
         <v>612</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -5719,7 +5978,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
@@ -5734,20 +5993,20 @@
         <v>578</v>
       </c>
       <c r="N10" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -5764,20 +6023,20 @@
         <v>232</v>
       </c>
       <c r="N11" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O11" s="35"/>
       <c r="P11" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -5794,20 +6053,20 @@
         <v>232</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -5824,20 +6083,20 @@
         <v>232</v>
       </c>
       <c r="N13" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -5872,20 +6131,20 @@
         <v>593</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -5920,20 +6179,20 @@
         <v>593</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -5965,20 +6224,20 @@
         <v>608</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -6007,20 +6266,20 @@
         <v>233</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q17" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -6028,7 +6287,7 @@
         <v>587</v>
       </c>
       <c r="B18" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
@@ -6052,20 +6311,20 @@
         <v>595</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q18" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -6094,20 +6353,20 @@
         <v>233</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q19" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -6124,20 +6383,20 @@
         <v>233</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q20" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S20" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -6154,25 +6413,25 @@
         <v>233</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B22" t="s">
         <v>369</v>
@@ -6184,20 +6443,20 @@
         <v>234</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -6214,20 +6473,20 @@
         <v>234</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -6271,20 +6530,20 @@
         <v>590</v>
       </c>
       <c r="N24" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -6325,20 +6584,20 @@
         <v>159</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R25" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -6352,7 +6611,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -6382,20 +6641,20 @@
         <v>504</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -6406,13 +6665,13 @@
         <v>518</v>
       </c>
       <c r="B27" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -6442,20 +6701,20 @@
         <v>504</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q27" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -6502,20 +6761,20 @@
         <v>583</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q28" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S28" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -6559,20 +6818,20 @@
         <v>583</v>
       </c>
       <c r="N29" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q29" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R29" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S29" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6610,20 +6869,20 @@
         <v>601</v>
       </c>
       <c r="N30" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q30" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S30" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -6640,20 +6899,20 @@
         <v>235</v>
       </c>
       <c r="N31" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q31" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R31" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S31" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
@@ -6694,20 +6953,20 @@
         <v>558</v>
       </c>
       <c r="N32" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S32" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -6724,20 +6983,20 @@
         <v>236</v>
       </c>
       <c r="N33" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q33" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R33" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -6775,20 +7034,20 @@
         <v>583</v>
       </c>
       <c r="N34" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O34" s="35"/>
       <c r="P34" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -6826,20 +7085,20 @@
         <v>523</v>
       </c>
       <c r="N35" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q35" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R35" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6880,20 +7139,20 @@
         <v>119</v>
       </c>
       <c r="N36" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O36" s="35"/>
       <c r="P36" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q36" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R36" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -6937,20 +7196,20 @@
         <v>504</v>
       </c>
       <c r="N37" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O37" s="35"/>
       <c r="P37" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q37" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R37" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6991,20 +7250,20 @@
         <v>119</v>
       </c>
       <c r="N38" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O38" s="35"/>
       <c r="P38" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q38" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R38" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S38" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7042,20 +7301,20 @@
         <v>237</v>
       </c>
       <c r="N39" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O39" s="35"/>
       <c r="P39" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q39" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R39" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7063,13 +7322,13 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>195</v>
@@ -7090,20 +7349,20 @@
         <v>237</v>
       </c>
       <c r="N40" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O40" s="35"/>
       <c r="P40" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7111,7 +7370,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -7138,20 +7397,20 @@
         <v>237</v>
       </c>
       <c r="N41" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O41" s="35"/>
       <c r="P41" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q41" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R41" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7186,25 +7445,25 @@
         <v>237</v>
       </c>
       <c r="N42" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O42" s="35"/>
       <c r="P42" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R42" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B43" t="s">
         <v>355</v>
@@ -7234,20 +7493,20 @@
         <v>237</v>
       </c>
       <c r="N43" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O43" s="35"/>
       <c r="P43" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q43" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R43" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S43" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7285,20 +7544,20 @@
         <v>119</v>
       </c>
       <c r="N44" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O44" s="35"/>
       <c r="P44" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q44" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R44" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -7342,20 +7601,20 @@
         <v>504</v>
       </c>
       <c r="N45" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O45" s="35"/>
       <c r="P45" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q45" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R45" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S45" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -7396,20 +7655,20 @@
         <v>504</v>
       </c>
       <c r="N46" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O46" s="35"/>
       <c r="P46" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R46" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -7450,20 +7709,20 @@
         <v>583</v>
       </c>
       <c r="N47" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O47" s="35"/>
       <c r="P47" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R47" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7501,20 +7760,20 @@
         <v>159</v>
       </c>
       <c r="N48" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O48" s="35"/>
       <c r="P48" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R48" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S48" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7552,20 +7811,20 @@
         <v>163</v>
       </c>
       <c r="N49" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O49" s="35"/>
       <c r="P49" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q49" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R49" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S49" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7603,20 +7862,20 @@
         <v>165</v>
       </c>
       <c r="N50" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O50" s="35"/>
       <c r="P50" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q50" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R50" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S50" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7651,31 +7910,31 @@
         <v>238</v>
       </c>
       <c r="N51" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O51" s="35"/>
       <c r="P51" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q51" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R51" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S51" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B52" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>195</v>
@@ -7693,20 +7952,20 @@
         <v>238</v>
       </c>
       <c r="N52" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O52" s="35"/>
       <c r="P52" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q52" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R52" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S52" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7741,20 +8000,20 @@
         <v>238</v>
       </c>
       <c r="N53" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O53" s="35"/>
       <c r="P53" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q53" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R53" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S53" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="90" x14ac:dyDescent="0.2">
@@ -7768,7 +8027,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -7798,20 +8057,20 @@
         <v>504</v>
       </c>
       <c r="N54" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O54" s="35"/>
       <c r="P54" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q54" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R54" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S54" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -7828,7 +8087,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
@@ -7858,20 +8117,20 @@
         <v>504</v>
       </c>
       <c r="N55" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O55" s="35"/>
       <c r="P55" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q55" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R55" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S55" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -7915,20 +8174,20 @@
         <v>504</v>
       </c>
       <c r="N56" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O56" s="35"/>
       <c r="P56" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q56" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R56" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S56" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -7966,20 +8225,20 @@
         <v>504</v>
       </c>
       <c r="N57" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O57" s="35"/>
       <c r="P57" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q57" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R57" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S57" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -8020,20 +8279,20 @@
         <v>504</v>
       </c>
       <c r="N58" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O58" s="35"/>
       <c r="P58" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q58" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R58" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S58" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -8062,20 +8321,20 @@
         <v>616</v>
       </c>
       <c r="N59" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O59" s="35"/>
       <c r="P59" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q59" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R59" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S59" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -8101,20 +8360,20 @@
         <v>541</v>
       </c>
       <c r="N60" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O60" s="35"/>
       <c r="P60" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q60" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R60" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S60" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -8131,20 +8390,20 @@
         <v>242</v>
       </c>
       <c r="N61" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O61" s="35"/>
       <c r="P61" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q61" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R61" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S61" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -8161,20 +8420,20 @@
         <v>243</v>
       </c>
       <c r="N62" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O62" s="35"/>
       <c r="P62" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q62" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R62" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S62" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -8191,20 +8450,20 @@
         <v>243</v>
       </c>
       <c r="N63" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O63" s="35"/>
       <c r="P63" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q63" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R63" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S63" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -8221,20 +8480,20 @@
         <v>243</v>
       </c>
       <c r="N64" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O64" s="35"/>
       <c r="P64" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q64" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R64" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S64" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -8251,20 +8510,20 @@
         <v>243</v>
       </c>
       <c r="N65" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O65" s="35"/>
       <c r="P65" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q65" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R65" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S65" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -8281,20 +8540,20 @@
         <v>243</v>
       </c>
       <c r="N66" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O66" s="35"/>
       <c r="P66" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q66" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R66" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S66" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -8311,20 +8570,20 @@
         <v>243</v>
       </c>
       <c r="N67" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O67" s="35"/>
       <c r="P67" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q67" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R67" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S67" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -8341,20 +8600,20 @@
         <v>245</v>
       </c>
       <c r="N68" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O68" s="35"/>
       <c r="P68" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q68" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R68" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S68" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -8371,20 +8630,20 @@
         <v>245</v>
       </c>
       <c r="N69" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O69" s="35"/>
       <c r="P69" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q69" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R69" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S69" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.2">
@@ -8398,7 +8657,7 @@
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>204</v>
@@ -8422,20 +8681,20 @@
         <v>165</v>
       </c>
       <c r="N70" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O70" s="35"/>
       <c r="P70" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q70" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R70" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S70" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -8452,20 +8711,20 @@
         <v>245</v>
       </c>
       <c r="N71" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O71" s="35"/>
       <c r="P71" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q71" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R71" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S71" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -8479,7 +8738,7 @@
         <v>43</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>205</v>
@@ -8503,20 +8762,20 @@
         <v>173</v>
       </c>
       <c r="N72" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O72" s="35"/>
       <c r="P72" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q72" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R72" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S72" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -8530,7 +8789,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>206</v>
@@ -8554,20 +8813,20 @@
         <v>174</v>
       </c>
       <c r="N73" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O73" s="35"/>
       <c r="P73" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q73" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R73" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S73" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="45" x14ac:dyDescent="0.2">
@@ -8581,7 +8840,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>204</v>
@@ -8605,20 +8864,20 @@
         <v>175</v>
       </c>
       <c r="N74" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O74" s="35"/>
       <c r="P74" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q74" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R74" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S74" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -8635,20 +8894,20 @@
         <v>247</v>
       </c>
       <c r="N75" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O75" s="35"/>
       <c r="P75" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q75" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R75" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S75" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -8665,20 +8924,20 @@
         <v>247</v>
       </c>
       <c r="N76" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O76" s="35"/>
       <c r="P76" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q76" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R76" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S76" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -8695,20 +8954,20 @@
         <v>247</v>
       </c>
       <c r="N77" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O77" s="35"/>
       <c r="P77" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q77" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R77" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S77" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -8734,20 +8993,20 @@
         <v>504</v>
       </c>
       <c r="N78" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O78" s="35"/>
       <c r="P78" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q78" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R78" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S78" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="60" x14ac:dyDescent="0.2">
@@ -8758,10 +9017,10 @@
         <v>329</v>
       </c>
       <c r="C79" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
@@ -8791,20 +9050,20 @@
         <v>515</v>
       </c>
       <c r="N79" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O79" s="35"/>
       <c r="P79" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q79" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R79" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S79" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="75" x14ac:dyDescent="0.2">
@@ -8818,7 +9077,7 @@
         <v>135</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -8848,20 +9107,20 @@
         <v>515</v>
       </c>
       <c r="N80" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O80" s="35"/>
       <c r="P80" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q80" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R80" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S80" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -8872,10 +9131,10 @@
         <v>373</v>
       </c>
       <c r="C81" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
@@ -8905,20 +9164,20 @@
         <v>515</v>
       </c>
       <c r="N81" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O81" s="35"/>
       <c r="P81" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q81" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R81" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S81" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -8929,10 +9188,10 @@
         <v>452</v>
       </c>
       <c r="C82" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -8962,20 +9221,20 @@
         <v>515</v>
       </c>
       <c r="N82" s="47" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O82" s="35"/>
       <c r="P82" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q82" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R82" s="35" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S82" s="35" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -8986,10 +9245,10 @@
         <v>516</v>
       </c>
       <c r="C83" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
@@ -9019,16 +9278,16 @@
         <v>493</v>
       </c>
       <c r="P83" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q83" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R83" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S83" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -9048,16 +9307,16 @@
         <v>493</v>
       </c>
       <c r="P84" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q84" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="R84" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S84" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -9104,16 +9363,16 @@
         <v>493</v>
       </c>
       <c r="P85" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q85" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="R85" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S85" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -9124,10 +9383,10 @@
         <v>560</v>
       </c>
       <c r="B86" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
@@ -9154,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="M86" t="s">
         <v>504</v>
@@ -9163,16 +9422,16 @@
         <v>493</v>
       </c>
       <c r="P86" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q86" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="R86" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S86" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="T86">
         <v>1</v>
@@ -9189,25 +9448,25 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N87" t="s">
         <v>494</v>
       </c>
       <c r="O87" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="P87" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="Q87" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="R87" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="S87" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="T87" t="s">
         <v>498</v>
@@ -9227,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N88" t="s">
         <v>494</v>
       </c>
       <c r="P88" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="Q88" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="R88" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="S88" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="T88" t="s">
         <v>499</v>
@@ -9262,28 +9521,28 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N89" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="O89" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="P89" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="Q89" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="R89" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="S89" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T89" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="U89" t="s">
         <v>500</v>
@@ -9300,28 +9559,28 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N90" t="s">
         <v>495</v>
       </c>
       <c r="P90" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q90" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="R90" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="S90" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="T90" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U90" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -9335,28 +9594,28 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N91" t="s">
         <v>496</v>
       </c>
       <c r="P91" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="Q91" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="R91" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="S91" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="T91" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="U91" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -9370,31 +9629,31 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N92" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="O92" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="P92" s="26" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q92" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="R92" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="S92" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="T92" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="U92" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -9409,6 +9668,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9439,15 +9711,15 @@
         <v>474</v>
       </c>
       <c r="F1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -9459,10 +9731,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -9480,7 +9752,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -9493,239 +9765,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>808</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>792</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>793</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>794</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>795</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>796</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>799</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>800</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>804</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>804</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>805</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>806</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>806</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="30" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="B6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C6" t="s">
-        <v>767</v>
-      </c>
-      <c r="D6" t="s">
-        <v>714</v>
-      </c>
-      <c r="E6" t="s">
-        <v>715</v>
-      </c>
-      <c r="F6" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>809</v>
-      </c>
-      <c r="B7" t="s">
-        <v>810</v>
-      </c>
-      <c r="C7" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" t="s">
-        <v>714</v>
-      </c>
-      <c r="E7" t="s">
-        <v>715</v>
-      </c>
-      <c r="F7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>702</v>
-      </c>
-      <c r="B8" t="s">
-        <v>703</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="D8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="B9" t="s">
-        <v>860</v>
-      </c>
-      <c r="C9" t="s">
-        <v>902</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="B10" t="s">
-        <v>861</v>
-      </c>
-      <c r="C10" t="s">
-        <v>901</v>
-      </c>
-      <c r="D10" t="s">
-        <v>714</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -9736,48 +9779,551 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>627</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>532</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>789</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>790</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>791</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>792</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>795</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="30" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="B6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="B8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D8" t="s">
+        <v>710</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="B9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="B10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C10" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" t="s">
+        <v>710</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="C2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D2" t="s">
+        <v>904</v>
+      </c>
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="C3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D3" t="s">
+        <v>908</v>
+      </c>
+      <c r="E3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>909</v>
+      </c>
+      <c r="C4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>911</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>911</v>
+      </c>
+      <c r="C5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D5" t="s">
+        <v>913</v>
+      </c>
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B6" t="s">
+        <v>914</v>
+      </c>
+      <c r="C6" t="s">
+        <v>916</v>
+      </c>
+      <c r="D6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D7" t="s">
+        <v>919</v>
+      </c>
+      <c r="E7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>920</v>
+      </c>
+      <c r="B8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C8" t="s">
+        <v>921</v>
+      </c>
+      <c r="D8" t="s">
+        <v>922</v>
+      </c>
+      <c r="E8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>923</v>
+      </c>
+      <c r="B9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C9" t="s">
+        <v>921</v>
+      </c>
+      <c r="D9" t="s">
+        <v>924</v>
+      </c>
+      <c r="E9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" t="s">
+        <v>926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>925</v>
+      </c>
+      <c r="D10" t="s">
+        <v>927</v>
+      </c>
+      <c r="E10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B11" t="s">
+        <v>928</v>
+      </c>
+      <c r="C11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D11" t="s">
+        <v>929</v>
+      </c>
+      <c r="E11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>931</v>
+      </c>
+      <c r="B12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" t="s">
+        <v>930</v>
+      </c>
+      <c r="D12" t="s">
+        <v>933</v>
+      </c>
+      <c r="E12" t="s">
+        <v>574</v>
+      </c>
+      <c r="F12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C13" t="s">
+        <v>930</v>
+      </c>
+      <c r="D13" t="s">
+        <v>933</v>
+      </c>
+      <c r="E13" t="s">
+        <v>574</v>
+      </c>
+      <c r="F13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" t="s">
+        <v>935</v>
+      </c>
+      <c r="D14" t="s">
+        <v>936</v>
+      </c>
+      <c r="E14" t="s">
+        <v>574</v>
+      </c>
+      <c r="F14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>937</v>
+      </c>
+      <c r="B15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D15" t="s">
+        <v>938</v>
+      </c>
+      <c r="E15" t="s">
+        <v>574</v>
+      </c>
+      <c r="F15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="A13" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9811,7 +10357,7 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C2" t="s">
         <v>507</v>
@@ -9836,7 +10382,7 @@
         <v>559</v>
       </c>
       <c r="B4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C4" t="s">
         <v>509</v>
@@ -9850,7 +10396,7 @@
         <v>536</v>
       </c>
       <c r="B5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C5" t="s">
         <v>510</v>
@@ -9909,7 +10455,7 @@
         <v>503</v>
       </c>
       <c r="D2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E2" t="s">
         <v>550</v>
@@ -9932,7 +10478,7 @@
         <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E3" t="s">
         <v>550</v>
@@ -9955,7 +10501,7 @@
         <v>501</v>
       </c>
       <c r="D4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E4" t="s">
         <v>550</v>
@@ -9978,7 +10524,7 @@
         <v>501</v>
       </c>
       <c r="D5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E5" t="s">
         <v>550</v>
@@ -10001,8 +10547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10047,7 +10593,7 @@
         <v>622</v>
       </c>
       <c r="K1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="L1" t="s">
         <v>538</v>
@@ -10071,7 +10617,7 @@
         <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10082,7 +10628,7 @@
         <v>376</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D3" s="8">
         <v>1722826</v>
@@ -10094,10 +10640,10 @@
         <v>249</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10121,7 +10667,7 @@
         <v>1984</v>
       </c>
       <c r="I4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10145,7 +10691,7 @@
         <v>1984</v>
       </c>
       <c r="I5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10167,7 +10713,7 @@
       </c>
       <c r="G6" s="27"/>
       <c r="I6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10191,7 +10737,7 @@
         <v>1984</v>
       </c>
       <c r="I7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -10206,13 +10752,13 @@
         <v>2337712</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>253</v>
       </c>
       <c r="I8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10220,20 +10766,20 @@
         <v>528</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10248,13 +10794,13 @@
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10275,7 +10821,7 @@
         <v>253</v>
       </c>
       <c r="I11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10296,7 +10842,7 @@
         <v>253</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10318,7 +10864,7 @@
         <v>1984</v>
       </c>
       <c r="I13" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10345,13 +10891,13 @@
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D15" s="8">
         <v>341573</v>
@@ -10360,27 +10906,27 @@
         <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G15">
         <v>1910</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="345" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D16" s="8">
         <v>341573</v>
@@ -10389,27 +10935,27 @@
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G16">
         <v>1954</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D17" s="8">
         <v>341573</v>
@@ -10418,27 +10964,27 @@
         <v>257</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G17">
         <v>1910</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D18" s="8">
         <v>183083</v>
@@ -10447,27 +10993,27 @@
         <v>259</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G18">
         <v>1929</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D19" s="8">
         <v>183083</v>
@@ -10476,16 +11022,16 @@
         <v>259</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G19">
         <v>1929</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10503,18 +11049,18 @@
         <v>259</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>390</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D21">
         <v>32941</v>
@@ -10523,16 +11069,16 @@
         <v>259</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G21" s="40">
         <v>1929</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J21" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10543,7 +11089,7 @@
         <v>392</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D22" s="8">
         <v>110430</v>
@@ -10552,24 +11098,24 @@
         <v>257</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G22">
         <v>1954</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D23" s="8">
         <v>232503</v>
@@ -10578,13 +11124,13 @@
         <v>260</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I23" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J23" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10595,7 +11141,7 @@
         <v>394</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D24" s="8">
         <v>28972</v>
@@ -10604,10 +11150,10 @@
         <v>261</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I24" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10618,7 +11164,7 @@
         <v>316</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D25" s="12">
         <v>137274</v>
@@ -10627,16 +11173,16 @@
         <v>262</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G25" s="27">
         <v>1928</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J25" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10647,7 +11193,7 @@
         <v>397</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D26" s="12">
         <v>137274</v>
@@ -10656,16 +11202,16 @@
         <v>263</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10676,7 +11222,7 @@
         <v>398</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D27" s="12">
         <v>137274</v>
@@ -10685,27 +11231,27 @@
         <v>262</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D28" s="8">
         <v>2577563</v>
@@ -10714,16 +11260,16 @@
         <v>264</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G28">
         <v>1900</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J28" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10734,7 +11280,7 @@
         <v>400</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D29" s="8">
         <v>2577563</v>
@@ -10743,16 +11289,16 @@
         <v>265</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G29">
         <v>1900</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J29" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -10770,7 +11316,7 @@
         <v>257</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -10781,7 +11327,7 @@
         <v>404</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D31" s="8">
         <v>634025</v>
@@ -10790,16 +11336,16 @@
         <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G31">
         <v>1947</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J31" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -10817,7 +11363,7 @@
         <v>257</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -10871,7 +11417,7 @@
         <v>270</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -10889,7 +11435,7 @@
         <v>270</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -10907,7 +11453,7 @@
         <v>270</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -10925,7 +11471,7 @@
         <v>270</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -10943,7 +11489,7 @@
         <v>270</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -10961,7 +11507,7 @@
         <v>275</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -10979,7 +11525,7 @@
         <v>270</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -10997,7 +11543,7 @@
         <v>270</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -11015,7 +11561,7 @@
         <v>270</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -11044,22 +11590,22 @@
         <v>277</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E45" t="s">
         <v>278</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G45">
         <v>2009</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J45" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="225" x14ac:dyDescent="0.2">
@@ -11070,13 +11616,13 @@
         <v>279</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G46">
         <v>2009</v>
@@ -11090,19 +11636,19 @@
         <v>280</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>263</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -11113,16 +11659,16 @@
         <v>282</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>281</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -11134,10 +11680,10 @@
       </c>
       <c r="C49" s="17"/>
       <c r="E49" s="4" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -11245,15 +11791,15 @@
         <v>296</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="25">
@@ -11263,7 +11809,7 @@
         <v>296</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -11281,7 +11827,7 @@
         <v>296</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -11299,7 +11845,7 @@
         <v>299</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -11317,7 +11863,7 @@
         <v>299</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -11335,7 +11881,7 @@
         <v>296</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -11353,7 +11899,7 @@
         <v>296</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -11364,7 +11910,7 @@
         <v>421</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D63" s="25">
         <v>274</v>
@@ -11373,13 +11919,13 @@
         <v>299</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J63" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -11390,7 +11936,7 @@
         <v>422</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D64" s="25">
         <v>5741</v>
@@ -11399,7 +11945,7 @@
         <v>296</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11407,10 +11953,10 @@
         <v>453</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D65" s="25">
         <v>7731871</v>
@@ -11419,19 +11965,19 @@
         <v>296</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G65" s="27">
         <v>1981</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J65" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="K65" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -11449,7 +11995,7 @@
         <v>296</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -11467,7 +12013,7 @@
         <v>296</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -11485,15 +12031,15 @@
         <v>296</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B69" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D69" s="25">
         <v>173531</v>
@@ -11502,15 +12048,15 @@
         <v>296</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D70" s="25">
         <v>173531</v>
@@ -11519,15 +12065,15 @@
         <v>296</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D71" s="25">
         <v>173531</v>
@@ -11536,15 +12082,15 @@
         <v>296</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D72" s="25">
         <v>173531</v>
@@ -11553,7 +12099,7 @@
         <v>296</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -11565,6 +12111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -11773,7 +12332,7 @@
         <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C12" t="s">
         <v>481</v>
@@ -11790,7 +12349,7 @@
         <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C13" t="s">
         <v>478</v>
@@ -11858,7 +12417,7 @@
         <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C17" t="s">
         <v>481</v>
@@ -11872,19 +12431,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>889</v>
+      </c>
+      <c r="B18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C18" t="s">
+        <v>891</v>
+      </c>
+      <c r="D18" t="s">
         <v>893</v>
       </c>
-      <c r="B18" t="s">
-        <v>894</v>
-      </c>
-      <c r="C18" t="s">
-        <v>895</v>
-      </c>
-      <c r="D18" t="s">
-        <v>897</v>
-      </c>
       <c r="E18" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -11894,7 +12453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -11906,7 +12465,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B1" t="s">
         <v>458</v>
@@ -11915,10 +12474,10 @@
         <v>544</v>
       </c>
       <c r="D1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F1" t="s">
         <v>542</v>
@@ -11926,7 +12485,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B2" t="s">
         <v>543</v>
@@ -11940,7 +12499,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B3" t="s">
         <v>543</v>
@@ -11954,7 +12513,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B4" t="s">
         <v>543</v>
@@ -11972,12 +12531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12010,7 +12569,7 @@
         <v>458</v>
       </c>
       <c r="H1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -12034,7 +12593,7 @@
         <v>596</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -12055,10 +12614,10 @@
         <v>248</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -12079,10 +12638,10 @@
         <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -12110,10 +12669,10 @@
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="31">
@@ -12126,7 +12685,7 @@
         <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H6" t="s">
         <v>268</v>
@@ -12171,21 +12730,21 @@
         <v>513</v>
       </c>
       <c r="G8" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D9" s="31">
         <v>53409</v>
@@ -12197,7 +12756,7 @@
         <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H9" t="s">
         <v>258</v>
@@ -12208,7 +12767,7 @@
         <v>568</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="31">
@@ -12221,10 +12780,10 @@
         <v>248</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="H10" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -12248,18 +12807,18 @@
         <v>597</v>
       </c>
       <c r="H11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="364" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D12" s="31">
         <v>53409</v>
@@ -12280,10 +12839,10 @@
     </row>
     <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D13" s="31">
         <v>53409</v>
@@ -12295,19 +12854,19 @@
         <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D14" s="31">
         <v>53409</v>
@@ -12319,18 +12878,18 @@
         <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H14" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D15" s="31">
         <v>53409</v>
@@ -12342,18 +12901,18 @@
         <v>297</v>
       </c>
       <c r="G15" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D16" s="31">
         <v>53409</v>
@@ -12373,10 +12932,10 @@
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D17" s="31">
         <v>53409</v>
@@ -12388,7 +12947,7 @@
         <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -12397,7 +12956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -12421,10 +12980,10 @@
         <v>544</v>
       </c>
       <c r="E1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G1" t="s">
         <v>542</v>
@@ -12435,35 +12994,35 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B4" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -12475,29 +13034,29 @@
         <v>91</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>295</v>
@@ -12509,18 +13068,18 @@
         <v>91</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C7" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
@@ -12532,29 +13091,29 @@
         <v>91</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B9" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -12566,18 +13125,18 @@
         <v>91</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
@@ -12589,26 +13148,26 @@
         <v>89</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B11" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B12" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>270</v>
@@ -12616,21 +13175,21 @@
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>295</v>
@@ -12642,35 +13201,22 @@
         <v>89</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B15" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/backend/resource/neo4j.xlsx
+++ b/backend/resource/neo4j.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1094">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4586,13 +4586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海贼王</t>
-    <rPh sb="0" eb="1">
-      <t>hai zei wang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作者</t>
     <rPh sb="0" eb="1">
       <t>zuo zhe</t>
@@ -4600,249 +4593,587 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>普通图书</t>
+  </si>
+  <si>
+    <t>海贼王</t>
+  </si>
+  <si>
     <t>航海王，海贼王</t>
+  </si>
+  <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>尾田荣一郎</t>
+  </si>
+  <si>
+    <t>名侦探柯南</t>
+  </si>
+  <si>
+    <t>柯南，名侦探柯南</t>
+  </si>
+  <si>
+    <t>青山刚昌</t>
+  </si>
+  <si>
+    <t>安徒生童话</t>
+  </si>
+  <si>
+    <t>童话</t>
+  </si>
+  <si>
+    <t>安徒生</t>
+  </si>
+  <si>
+    <t>格林童话</t>
+  </si>
+  <si>
+    <t>格林</t>
+  </si>
+  <si>
+    <t>倚天屠龙记</t>
+  </si>
+  <si>
+    <t>武侠</t>
+  </si>
+  <si>
+    <t>金庸</t>
+  </si>
+  <si>
+    <t>雪山飞狐</t>
+  </si>
+  <si>
+    <t>致我们终将逝去的青春</t>
+  </si>
+  <si>
+    <t>青春文学</t>
+  </si>
+  <si>
+    <t>辛夷坞</t>
+  </si>
+  <si>
+    <t>左耳</t>
+  </si>
+  <si>
+    <t>饶雪漫</t>
+  </si>
+  <si>
+    <t>万历十五年</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>黄仁宇</t>
+  </si>
+  <si>
+    <t>中国史纲</t>
+  </si>
+  <si>
+    <t>张荫麟</t>
+  </si>
+  <si>
+    <t>红玫瑰与白玫瑰</t>
+  </si>
+  <si>
+    <t>女性文学</t>
+  </si>
+  <si>
+    <t>张爱玲</t>
+  </si>
+  <si>
+    <t>半生缘</t>
+  </si>
+  <si>
+    <t>红楼梦</t>
+  </si>
+  <si>
+    <t>曹雪芹</t>
+  </si>
+  <si>
+    <t>西游记</t>
+  </si>
+  <si>
+    <t>吴承恩</t>
+  </si>
+  <si>
+    <t>史记</t>
+  </si>
+  <si>
+    <t>太史公记</t>
+  </si>
+  <si>
+    <t>纪传体</t>
+  </si>
+  <si>
+    <t>司马迁</t>
+  </si>
+  <si>
+    <t>平凡的世界</t>
+  </si>
+  <si>
+    <t>现代小说</t>
+  </si>
+  <si>
+    <t>路遥</t>
+  </si>
+  <si>
+    <t>梦的解析</t>
+  </si>
+  <si>
+    <t>释梦、解梦</t>
+  </si>
+  <si>
+    <t>心理学理论</t>
+  </si>
+  <si>
+    <t>西格蒙特·弗洛伊德</t>
+  </si>
+  <si>
+    <t>飘</t>
+  </si>
+  <si>
+    <t>乱世佳人</t>
+  </si>
+  <si>
+    <t>玛格丽特·米切尔</t>
+  </si>
+  <si>
+    <t>社会契约论</t>
+  </si>
+  <si>
+    <t>政治著作</t>
+  </si>
+  <si>
+    <t>让-雅克·卢梭</t>
+  </si>
+  <si>
+    <t>目送</t>
+  </si>
+  <si>
+    <t>龙应台</t>
+  </si>
+  <si>
+    <t>孙子兵法</t>
+  </si>
+  <si>
+    <t>孙子兵书</t>
+  </si>
+  <si>
+    <t>军事理论思想</t>
+  </si>
+  <si>
+    <t>孙武</t>
+  </si>
+  <si>
+    <t>资本论</t>
+  </si>
+  <si>
+    <t>资本论：政治经济学批判</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>卡尔·海因里希·马克思</t>
+  </si>
+  <si>
+    <t>理想国</t>
+  </si>
+  <si>
+    <t>国家篇</t>
+  </si>
+  <si>
+    <t>柏拉图</t>
+  </si>
+  <si>
+    <t>何以笙箫默</t>
+  </si>
+  <si>
+    <t>顾漫</t>
+  </si>
+  <si>
+    <t>呐喊</t>
+  </si>
+  <si>
+    <t>小说集</t>
+  </si>
+  <si>
+    <t>鲁迅</t>
+  </si>
+  <si>
+    <t>老人与海</t>
+  </si>
+  <si>
+    <t>欧内斯特·米勒尔·海明威</t>
+  </si>
+  <si>
+    <t>西方的没落</t>
+  </si>
+  <si>
+    <t>奥斯瓦尔德・斯宾格勒</t>
+  </si>
+  <si>
+    <t>人类简史</t>
+  </si>
+  <si>
+    <t>人类简史：从动物到上帝</t>
+  </si>
+  <si>
+    <t>尤瓦尔·赫拉利</t>
+  </si>
+  <si>
+    <t>资治通鉴</t>
+  </si>
+  <si>
+    <t>通鉴</t>
+  </si>
+  <si>
+    <t>编年体史书</t>
+  </si>
+  <si>
+    <t>司马光</t>
+  </si>
+  <si>
+    <t>国富论</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>亚当·斯密</t>
+  </si>
+  <si>
+    <t>雷雨</t>
+  </si>
+  <si>
+    <t>曹禺</t>
+  </si>
+  <si>
+    <t>茶花女</t>
+  </si>
+  <si>
+    <t>亚历山大·小仲马</t>
+  </si>
+  <si>
+    <t>西厢记</t>
+  </si>
+  <si>
+    <t>北西厢</t>
+  </si>
+  <si>
+    <t>王实甫</t>
+  </si>
+  <si>
+    <t>论语</t>
+  </si>
+  <si>
+    <t>论</t>
+  </si>
+  <si>
+    <t>语录体散文</t>
+  </si>
+  <si>
+    <t>孔子弟子及再传弟子</t>
+  </si>
+  <si>
+    <t>海底两万里</t>
+  </si>
+  <si>
+    <t>海底旅行</t>
+  </si>
+  <si>
+    <t>儒勒·凡尔纳</t>
+  </si>
+  <si>
+    <t>骆驼祥子</t>
+  </si>
+  <si>
+    <t>小说</t>
+  </si>
+  <si>
+    <t>老舍</t>
+  </si>
+  <si>
+    <t>新月集</t>
+  </si>
+  <si>
+    <t>泰戈尔</t>
+  </si>
+  <si>
+    <t>物种起源</t>
+  </si>
+  <si>
+    <t>论依据自然选择即在生存斗争中保存优良族的物种起源</t>
+  </si>
+  <si>
+    <t>生物学著作</t>
+  </si>
+  <si>
+    <t>查尔斯·达尔文</t>
+  </si>
+  <si>
+    <t>水经注</t>
+  </si>
+  <si>
+    <t>散文</t>
+  </si>
+  <si>
+    <t>郦道元</t>
+  </si>
+  <si>
+    <t>圣经</t>
+  </si>
+  <si>
+    <t>新旧约全书</t>
+  </si>
+  <si>
+    <t>历史传记</t>
+  </si>
+  <si>
+    <t>马太</t>
+  </si>
+  <si>
+    <t>鲁滨逊漂流记</t>
+  </si>
+  <si>
+    <t>鲁滨孙漂流记</t>
+  </si>
+  <si>
+    <t>丹尼尔·笛福</t>
+  </si>
+  <si>
+    <t>我的大学</t>
+  </si>
+  <si>
+    <t>马克西姆·高尔基</t>
+  </si>
+  <si>
+    <t>聊斋志异</t>
+  </si>
+  <si>
+    <t>聊斋</t>
+  </si>
+  <si>
+    <t>蒲松龄</t>
+  </si>
+  <si>
+    <t>海军战略</t>
+  </si>
+  <si>
+    <t>军事著作</t>
+  </si>
+  <si>
+    <t>艾尔弗雷德马汉</t>
+  </si>
+  <si>
+    <t>射雕英雄传</t>
+  </si>
+  <si>
+    <t>大漠英雄传</t>
+  </si>
+  <si>
+    <t>儿童与家庭童话集</t>
+  </si>
+  <si>
+    <t>格林兄弟</t>
+  </si>
+  <si>
+    <t>孟子</t>
+  </si>
+  <si>
+    <t>语录体</t>
+  </si>
+  <si>
+    <t>孟子、其弟子及其再传弟子</t>
+  </si>
+  <si>
+    <t>三国志</t>
+  </si>
+  <si>
+    <t>陈寿</t>
+  </si>
+  <si>
+    <t>齐民要术</t>
+  </si>
+  <si>
+    <t>中国古代农业百科全书</t>
+  </si>
+  <si>
+    <t>农学著作</t>
+  </si>
+  <si>
+    <t>贾思勰</t>
+  </si>
+  <si>
+    <t>七龙珠</t>
+  </si>
+  <si>
+    <t>元组龙珠</t>
+  </si>
+  <si>
+    <t>鸟山明</t>
+  </si>
+  <si>
+    <t>灌篮高手</t>
+  </si>
+  <si>
+    <t>篮球飞人</t>
+  </si>
+  <si>
+    <t>井上雄彦</t>
+  </si>
+  <si>
+    <t>火隐忍者</t>
+  </si>
+  <si>
+    <t>狐忍</t>
+  </si>
+  <si>
+    <t>岸本齐史</t>
+  </si>
+  <si>
+    <t>游戏王</t>
+  </si>
+  <si>
+    <t>游戏王DM</t>
+  </si>
+  <si>
+    <t>高桥和希</t>
+  </si>
+  <si>
+    <t>全职猎人</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>富坚义博</t>
+  </si>
+  <si>
+    <t>伊索寓言</t>
+  </si>
+  <si>
+    <t>伊索</t>
+  </si>
+  <si>
+    <t>木偶奇遇记</t>
+  </si>
+  <si>
+    <t>匹诺曹</t>
+  </si>
+  <si>
+    <t>卡洛·科洛迪</t>
+  </si>
+  <si>
+    <t>格列佛游记</t>
+  </si>
+  <si>
+    <t>乔纳森·斯威夫特</t>
+  </si>
+  <si>
+    <t>王尔德童话</t>
+  </si>
+  <si>
+    <t>奥斯卡·王尔德</t>
+  </si>
+  <si>
+    <t>阿拉伯童话</t>
+  </si>
+  <si>
+    <t>民间收集</t>
+  </si>
+  <si>
+    <t>天龙八部</t>
+  </si>
+  <si>
+    <t>笑傲江湖</t>
+  </si>
+  <si>
+    <t>大旗英雄传</t>
+  </si>
+  <si>
+    <t>铁血大旗</t>
+  </si>
+  <si>
+    <t>古龙</t>
+  </si>
+  <si>
+    <t>七剑下天山</t>
+  </si>
+  <si>
+    <t>梁羽生</t>
+  </si>
+  <si>
+    <t>萧十一郎</t>
+  </si>
+  <si>
+    <t>泡沫之夏</t>
+  </si>
+  <si>
+    <t>明晓溪</t>
+  </si>
+  <si>
+    <t>十年一品温如言</t>
+  </si>
+  <si>
+    <t>书海沧生</t>
+  </si>
+  <si>
+    <t>微微一笑很倾城</t>
+  </si>
+  <si>
+    <t>佳期如梦</t>
+  </si>
+  <si>
+    <t>匪我思存</t>
+  </si>
+  <si>
+    <t>大秦帝国</t>
+  </si>
+  <si>
+    <t>孙皓晖</t>
+  </si>
+  <si>
+    <t>全球通史：从史前史到21世纪</t>
+  </si>
+  <si>
+    <t>L·S·斯塔夫里阿诺斯</t>
+  </si>
+  <si>
+    <t>左传</t>
+  </si>
+  <si>
+    <t>春秋左氏传</t>
+  </si>
+  <si>
+    <t>左丘明</t>
+  </si>
+  <si>
+    <t>安娜·卡列尼娜</t>
+  </si>
+  <si>
+    <t>列夫·托尔斯泰</t>
+  </si>
+  <si>
+    <t>珍妮姑娘</t>
+  </si>
+  <si>
+    <t>西奥多·德莱赛</t>
+  </si>
+  <si>
+    <t>倾城之恋</t>
+  </si>
+  <si>
+    <t>其他</t>
     <rPh sb="0" eb="1">
-      <t>hang hai wang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫画</t>
-    <rPh sb="0" eb="1">
-      <t>man hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾田荣一郎</t>
-    <rPh sb="0" eb="1">
-      <t>wei tian rong yi lang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通图书</t>
-  </si>
-  <si>
-    <t>名侦探柯南</t>
-    <rPh sb="0" eb="1">
-      <t>ming zhen tan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ke nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯南，名侦探柯南</t>
-    <rPh sb="0" eb="1">
-      <t>ke nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青山刚昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徒生童话</t>
-    <rPh sb="0" eb="1">
-      <t>an tu sh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tong hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>童话</t>
-    <rPh sb="0" eb="1">
-      <t>t h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格林童话</t>
-    <rPh sb="0" eb="1">
-      <t>ge lin tong hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徒生</t>
-    <rPh sb="0" eb="1">
-      <t>an tu sheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格林</t>
-    <rPh sb="0" eb="1">
-      <t>ge lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天屠龙记</t>
-    <rPh sb="0" eb="1">
-      <t>yi tian tu long ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪山飞狐</t>
-    <rPh sb="0" eb="1">
-      <t>xue hsan fei hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武侠</t>
-    <rPh sb="0" eb="1">
-      <t>wu xia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武侠</t>
-    <rPh sb="0" eb="1">
-      <t>wu xai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金庸</t>
-    <rPh sb="0" eb="1">
-      <t>jin yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金庸</t>
-    <rPh sb="0" eb="1">
-      <t>jin y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>致我们终将逝去的青春</t>
-    <rPh sb="0" eb="1">
-      <t>zhi wo men</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi qu de qin c</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qing chun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青春文学</t>
-    <rPh sb="0" eb="1">
-      <t>qing chun wen x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛夷坞</t>
-    <rPh sb="0" eb="1">
-      <t>xin yi wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左耳</t>
-    <rPh sb="0" eb="1">
-      <t>zuo er</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饶雪漫</t>
-    <rPh sb="0" eb="1">
-      <t>rao xue m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史</t>
-    <rPh sb="0" eb="1">
-      <t>li shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万历十五年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄仁宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国史纲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张荫麟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女性文学</t>
-    <rPh sb="0" eb="1">
-      <t>nü x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wen x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红玫瑰与白玫瑰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半生缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张爱玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红楼梦</t>
-    <rPh sb="0" eb="1">
-      <t>hong lou m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名著</t>
-    <rPh sb="0" eb="1">
-      <t>ming z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹雪芹</t>
-    <rPh sb="0" eb="1">
-      <t>cao xue qin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西游记</t>
-    <rPh sb="0" eb="1">
-      <t>xi you ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴承恩</t>
-    <rPh sb="0" eb="1">
-      <t>wu cheng en</t>
-    </rPh>
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童话集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4850,7 +5181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5034,6 +5365,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5120,7 +5457,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5204,6 +5541,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -10008,10 +10346,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10027,7 +10365,7 @@
         <v>899</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E1" t="s">
         <v>458</v>
@@ -10038,22 +10376,22 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E2" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -10064,16 +10402,16 @@
         <v>907</v>
       </c>
       <c r="C3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D3" t="s">
         <v>908</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -10087,21 +10425,21 @@
         <v>910</v>
       </c>
       <c r="D4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E4" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C5" t="s">
         <v>910</v>
@@ -10110,10 +10448,10 @@
         <v>913</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F5" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10124,196 +10462,1496 @@
         <v>914</v>
       </c>
       <c r="C6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D6" t="s">
         <v>916</v>
       </c>
-      <c r="D6" t="s">
-        <v>918</v>
-      </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F6" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>917</v>
+      </c>
+      <c r="B7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C7" t="s">
         <v>915</v>
       </c>
-      <c r="B7" t="s">
-        <v>915</v>
-      </c>
-      <c r="C7" t="s">
-        <v>917</v>
-      </c>
       <c r="D7" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E7" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F7" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" t="s">
         <v>920</v>
       </c>
-      <c r="B8" t="s">
-        <v>920</v>
-      </c>
-      <c r="C8" t="s">
-        <v>921</v>
-      </c>
-      <c r="D8" t="s">
-        <v>922</v>
-      </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F8" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E9" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C10" t="s">
+        <v>924</v>
+      </c>
+      <c r="D10" t="s">
         <v>925</v>
       </c>
-      <c r="D10" t="s">
-        <v>927</v>
-      </c>
       <c r="E10" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F10" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E11" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F11" t="s">
-        <v>564</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C12" t="s">
+        <v>929</v>
+      </c>
+      <c r="D12" t="s">
         <v>930</v>
       </c>
-      <c r="D12" t="s">
-        <v>933</v>
-      </c>
       <c r="E12" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F12" t="s">
-        <v>564</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C13" t="s">
+        <v>929</v>
+      </c>
+      <c r="D13" t="s">
         <v>930</v>
       </c>
-      <c r="D13" t="s">
-        <v>933</v>
-      </c>
       <c r="E13" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F13" t="s">
-        <v>564</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B14" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C14" t="s">
-        <v>935</v>
+        <v>1092</v>
       </c>
       <c r="D14" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E14" t="s">
-        <v>574</v>
+        <v>814</v>
       </c>
       <c r="F14" t="s">
-        <v>564</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>934</v>
+      </c>
+      <c r="B15" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D15" t="s">
+        <v>935</v>
+      </c>
+      <c r="E15" t="s">
+        <v>814</v>
+      </c>
+      <c r="F15" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" t="s">
         <v>937</v>
       </c>
-      <c r="B15" t="s">
-        <v>937</v>
-      </c>
-      <c r="C15" t="s">
-        <v>935</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>938</v>
       </c>
-      <c r="E15" t="s">
-        <v>574</v>
-      </c>
-      <c r="F15" t="s">
-        <v>564</v>
+      <c r="D16" t="s">
+        <v>939</v>
+      </c>
+      <c r="E16" t="s">
+        <v>814</v>
+      </c>
+      <c r="F16" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>940</v>
+      </c>
+      <c r="B17" t="s">
+        <v>940</v>
+      </c>
+      <c r="C17" t="s">
+        <v>941</v>
+      </c>
+      <c r="D17" t="s">
+        <v>942</v>
+      </c>
+      <c r="E17" t="s">
+        <v>814</v>
+      </c>
+      <c r="F17" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>943</v>
+      </c>
+      <c r="B18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C18" t="s">
+        <v>945</v>
+      </c>
+      <c r="D18" t="s">
+        <v>946</v>
+      </c>
+      <c r="E18" t="s">
+        <v>814</v>
+      </c>
+      <c r="F18" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B19" t="s">
+        <v>948</v>
+      </c>
+      <c r="C19" t="s">
+        <v>929</v>
+      </c>
+      <c r="D19" t="s">
+        <v>949</v>
+      </c>
+      <c r="E19" t="s">
+        <v>814</v>
+      </c>
+      <c r="F19" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>950</v>
+      </c>
+      <c r="B20" t="s">
+        <v>950</v>
+      </c>
+      <c r="C20" t="s">
+        <v>951</v>
+      </c>
+      <c r="D20" t="s">
+        <v>952</v>
+      </c>
+      <c r="E20" t="s">
+        <v>814</v>
+      </c>
+      <c r="F20" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>953</v>
+      </c>
+      <c r="B21" t="s">
+        <v>953</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D21" t="s">
+        <v>954</v>
+      </c>
+      <c r="E21" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>955</v>
+      </c>
+      <c r="B22" t="s">
+        <v>956</v>
+      </c>
+      <c r="C22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D22" t="s">
+        <v>958</v>
+      </c>
+      <c r="E22" t="s">
+        <v>814</v>
+      </c>
+      <c r="F22" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>959</v>
+      </c>
+      <c r="B23" t="s">
+        <v>960</v>
+      </c>
+      <c r="C23" t="s">
+        <v>961</v>
+      </c>
+      <c r="D23" t="s">
+        <v>962</v>
+      </c>
+      <c r="E23" t="s">
+        <v>814</v>
+      </c>
+      <c r="F23" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>963</v>
+      </c>
+      <c r="B24" t="s">
+        <v>964</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D24" t="s">
+        <v>965</v>
+      </c>
+      <c r="E24" t="s">
+        <v>814</v>
+      </c>
+      <c r="F24" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>966</v>
+      </c>
+      <c r="B25" t="s">
+        <v>966</v>
+      </c>
+      <c r="C25" t="s">
+        <v>919</v>
+      </c>
+      <c r="D25" t="s">
+        <v>967</v>
+      </c>
+      <c r="E25" t="s">
+        <v>814</v>
+      </c>
+      <c r="F25" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>968</v>
+      </c>
+      <c r="B26" t="s">
+        <v>968</v>
+      </c>
+      <c r="C26" t="s">
+        <v>969</v>
+      </c>
+      <c r="D26" t="s">
+        <v>970</v>
+      </c>
+      <c r="E26" t="s">
+        <v>814</v>
+      </c>
+      <c r="F26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>971</v>
+      </c>
+      <c r="B27" t="s">
+        <v>971</v>
+      </c>
+      <c r="C27" t="s">
+        <v>969</v>
+      </c>
+      <c r="D27" t="s">
+        <v>972</v>
+      </c>
+      <c r="E27" t="s">
+        <v>814</v>
+      </c>
+      <c r="F27" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>973</v>
+      </c>
+      <c r="B28" t="s">
+        <v>973</v>
+      </c>
+      <c r="C28" t="s">
+        <v>924</v>
+      </c>
+      <c r="D28" t="s">
+        <v>974</v>
+      </c>
+      <c r="E28" t="s">
+        <v>814</v>
+      </c>
+      <c r="F28" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>975</v>
+      </c>
+      <c r="B29" t="s">
+        <v>976</v>
+      </c>
+      <c r="C29" t="s">
+        <v>924</v>
+      </c>
+      <c r="D29" t="s">
+        <v>977</v>
+      </c>
+      <c r="E29" t="s">
+        <v>814</v>
+      </c>
+      <c r="F29" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>978</v>
+      </c>
+      <c r="B30" t="s">
+        <v>979</v>
+      </c>
+      <c r="C30" t="s">
+        <v>980</v>
+      </c>
+      <c r="D30" t="s">
+        <v>981</v>
+      </c>
+      <c r="E30" t="s">
+        <v>814</v>
+      </c>
+      <c r="F30" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>982</v>
+      </c>
+      <c r="B31" t="s">
+        <v>982</v>
+      </c>
+      <c r="C31" t="s">
+        <v>983</v>
+      </c>
+      <c r="D31" t="s">
+        <v>984</v>
+      </c>
+      <c r="E31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F31" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>985</v>
+      </c>
+      <c r="B32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D32" t="s">
+        <v>986</v>
+      </c>
+      <c r="E32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F32" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>987</v>
+      </c>
+      <c r="B33" t="s">
+        <v>987</v>
+      </c>
+      <c r="C33" t="s">
+        <v>929</v>
+      </c>
+      <c r="D33" t="s">
+        <v>988</v>
+      </c>
+      <c r="E33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F33" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>989</v>
+      </c>
+      <c r="B34" t="s">
+        <v>990</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D34" t="s">
+        <v>991</v>
+      </c>
+      <c r="E34" t="s">
+        <v>814</v>
+      </c>
+      <c r="F34" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>992</v>
+      </c>
+      <c r="B35" t="s">
+        <v>993</v>
+      </c>
+      <c r="C35" t="s">
+        <v>994</v>
+      </c>
+      <c r="D35" t="s">
+        <v>995</v>
+      </c>
+      <c r="E35" t="s">
+        <v>814</v>
+      </c>
+      <c r="F35" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>996</v>
+      </c>
+      <c r="B36" t="s">
+        <v>997</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D36" t="s">
+        <v>998</v>
+      </c>
+      <c r="E36" t="s">
+        <v>814</v>
+      </c>
+      <c r="F36" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>814</v>
+      </c>
+      <c r="F37" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E38" t="s">
+        <v>814</v>
+      </c>
+      <c r="F38" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E39" t="s">
+        <v>814</v>
+      </c>
+      <c r="F39" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E40" t="s">
+        <v>814</v>
+      </c>
+      <c r="F40" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E41" t="s">
+        <v>814</v>
+      </c>
+      <c r="F41" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E42" t="s">
+        <v>814</v>
+      </c>
+      <c r="F42" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E43" t="s">
+        <v>814</v>
+      </c>
+      <c r="F43" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C44" t="s">
+        <v>969</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E44" t="s">
+        <v>814</v>
+      </c>
+      <c r="F44" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E45" t="s">
+        <v>814</v>
+      </c>
+      <c r="F45" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C46" t="s">
+        <v>915</v>
+      </c>
+      <c r="D46" t="s">
+        <v>916</v>
+      </c>
+      <c r="E46" t="s">
+        <v>814</v>
+      </c>
+      <c r="F46" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>912</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E47" t="s">
+        <v>814</v>
+      </c>
+      <c r="F47" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E48" t="s">
+        <v>814</v>
+      </c>
+      <c r="F48" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C49" t="s">
+        <v>938</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E49" t="s">
+        <v>814</v>
+      </c>
+      <c r="F49" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E50" t="s">
+        <v>814</v>
+      </c>
+      <c r="F50" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C51" t="s">
+        <v>904</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E51" t="s">
+        <v>814</v>
+      </c>
+      <c r="F51" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C52" t="s">
+        <v>904</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E52" t="s">
+        <v>814</v>
+      </c>
+      <c r="F52" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C53" t="s">
+        <v>904</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E53" t="s">
+        <v>814</v>
+      </c>
+      <c r="F53" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C54" t="s">
+        <v>904</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E54" t="s">
+        <v>814</v>
+      </c>
+      <c r="F54" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C55" t="s">
+        <v>904</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E55" t="s">
+        <v>814</v>
+      </c>
+      <c r="F55" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C56" t="s">
+        <v>910</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E56" t="s">
+        <v>814</v>
+      </c>
+      <c r="F56" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C57" t="s">
+        <v>910</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E57" t="s">
+        <v>814</v>
+      </c>
+      <c r="F57" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C58" t="s">
+        <v>910</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E58" t="s">
+        <v>814</v>
+      </c>
+      <c r="F58" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C59" t="s">
+        <v>910</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E59" t="s">
+        <v>814</v>
+      </c>
+      <c r="F59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C60" t="s">
+        <v>910</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E60" t="s">
+        <v>814</v>
+      </c>
+      <c r="F60" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C61" t="s">
+        <v>915</v>
+      </c>
+      <c r="D61" t="s">
+        <v>916</v>
+      </c>
+      <c r="E61" t="s">
+        <v>814</v>
+      </c>
+      <c r="F61" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C62" t="s">
+        <v>915</v>
+      </c>
+      <c r="D62" t="s">
+        <v>916</v>
+      </c>
+      <c r="E62" t="s">
+        <v>814</v>
+      </c>
+      <c r="F62" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C63" t="s">
+        <v>915</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E63" t="s">
+        <v>814</v>
+      </c>
+      <c r="F63" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C64" t="s">
+        <v>915</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E64" t="s">
+        <v>814</v>
+      </c>
+      <c r="F64" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C65" t="s">
+        <v>915</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E65" t="s">
+        <v>814</v>
+      </c>
+      <c r="F65" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>966</v>
+      </c>
+      <c r="B66" t="s">
+        <v>966</v>
+      </c>
+      <c r="C66" t="s">
+        <v>919</v>
+      </c>
+      <c r="D66" t="s">
+        <v>967</v>
+      </c>
+      <c r="E66" t="s">
+        <v>814</v>
+      </c>
+      <c r="F66" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C67" t="s">
+        <v>919</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E67" t="s">
+        <v>814</v>
+      </c>
+      <c r="F67" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C68" t="s">
+        <v>919</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E68" t="s">
+        <v>814</v>
+      </c>
+      <c r="F68" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C69" t="s">
+        <v>919</v>
+      </c>
+      <c r="D69" t="s">
+        <v>967</v>
+      </c>
+      <c r="E69" t="s">
+        <v>814</v>
+      </c>
+      <c r="F69" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C70" t="s">
+        <v>919</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E70" t="s">
+        <v>814</v>
+      </c>
+      <c r="F70" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>973</v>
+      </c>
+      <c r="B71" t="s">
+        <v>973</v>
+      </c>
+      <c r="C71" t="s">
+        <v>924</v>
+      </c>
+      <c r="D71" t="s">
+        <v>974</v>
+      </c>
+      <c r="E71" t="s">
+        <v>814</v>
+      </c>
+      <c r="F71" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>975</v>
+      </c>
+      <c r="B72" t="s">
+        <v>976</v>
+      </c>
+      <c r="C72" t="s">
+        <v>924</v>
+      </c>
+      <c r="D72" t="s">
+        <v>977</v>
+      </c>
+      <c r="E72" t="s">
+        <v>814</v>
+      </c>
+      <c r="F72" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C73" t="s">
+        <v>924</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E73" t="s">
+        <v>814</v>
+      </c>
+      <c r="F73" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C74" t="s">
+        <v>924</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E74" t="s">
+        <v>814</v>
+      </c>
+      <c r="F74" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C75" t="s">
+        <v>924</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E75" t="s">
+        <v>814</v>
+      </c>
+      <c r="F75" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>947</v>
+      </c>
+      <c r="B76" t="s">
+        <v>948</v>
+      </c>
+      <c r="C76" t="s">
+        <v>929</v>
+      </c>
+      <c r="D76" t="s">
+        <v>949</v>
+      </c>
+      <c r="E76" t="s">
+        <v>814</v>
+      </c>
+      <c r="F76" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>987</v>
+      </c>
+      <c r="B77" t="s">
+        <v>987</v>
+      </c>
+      <c r="C77" t="s">
+        <v>929</v>
+      </c>
+      <c r="D77" t="s">
+        <v>988</v>
+      </c>
+      <c r="E77" t="s">
+        <v>814</v>
+      </c>
+      <c r="F77" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C78" t="s">
+        <v>929</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E78" t="s">
+        <v>814</v>
+      </c>
+      <c r="F78" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C79" t="s">
+        <v>929</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E79" t="s">
+        <v>814</v>
+      </c>
+      <c r="F79" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C80" t="s">
+        <v>929</v>
+      </c>
+      <c r="D80" t="s">
+        <v>930</v>
+      </c>
+      <c r="E80" t="s">
+        <v>814</v>
+      </c>
+      <c r="F80" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
